--- a/TestWithBash/ExcelTest2.xlsx
+++ b/TestWithBash/ExcelTest2.xlsx
@@ -38,97 +38,97 @@
     <t>Produkt</t>
   </si>
   <si>
+    <t>1.1.2013</t>
+  </si>
+  <si>
+    <t>2.1.2013</t>
+  </si>
+  <si>
+    <t>3.1.2013</t>
+  </si>
+  <si>
+    <t>4.1.2013</t>
+  </si>
+  <si>
+    <t>5.1.2013</t>
+  </si>
+  <si>
+    <t>6.1.2013</t>
+  </si>
+  <si>
+    <t>7.1.2013</t>
+  </si>
+  <si>
+    <t>8.1.2013</t>
+  </si>
+  <si>
+    <t>9.1.2013</t>
+  </si>
+  <si>
     <t>10.1.2013</t>
   </si>
   <si>
-    <t>9.1.2013</t>
+    <t>11.1.2013</t>
+  </si>
+  <si>
+    <t>12.1.2013</t>
+  </si>
+  <si>
+    <t>13.1.2013</t>
+  </si>
+  <si>
+    <t>14.1.2013</t>
+  </si>
+  <si>
+    <t>15.1.2013</t>
   </si>
   <si>
     <t>16.1.2013</t>
   </si>
   <si>
-    <t>4.1.2013</t>
+    <t>17.1.2013</t>
+  </si>
+  <si>
+    <t>18.1.2013</t>
+  </si>
+  <si>
+    <t>19.1.2013</t>
+  </si>
+  <si>
+    <t>20.1.2013</t>
+  </si>
+  <si>
+    <t>21.1.2013</t>
+  </si>
+  <si>
+    <t>22.1.2013</t>
+  </si>
+  <si>
+    <t>23.1.2013</t>
+  </si>
+  <si>
+    <t>24.1.2013</t>
+  </si>
+  <si>
+    <t>25.1.2013</t>
+  </si>
+  <si>
+    <t>26.1.2013</t>
+  </si>
+  <si>
+    <t>27.1.2013</t>
+  </si>
+  <si>
+    <t>28.1.2013</t>
+  </si>
+  <si>
+    <t>29.1.2013</t>
+  </si>
+  <si>
+    <t>30.1.2013</t>
   </si>
   <si>
     <t>31.1.2013</t>
-  </si>
-  <si>
-    <t>25.1.2013</t>
-  </si>
-  <si>
-    <t>15.1.2013</t>
-  </si>
-  <si>
-    <t>29.1.2013</t>
-  </si>
-  <si>
-    <t>23.1.2013</t>
-  </si>
-  <si>
-    <t>13.1.2013</t>
-  </si>
-  <si>
-    <t>12.1.2013</t>
-  </si>
-  <si>
-    <t>30.1.2013</t>
-  </si>
-  <si>
-    <t>7.1.2013</t>
-  </si>
-  <si>
-    <t>21.1.2013</t>
-  </si>
-  <si>
-    <t>11.1.2013</t>
-  </si>
-  <si>
-    <t>27.1.2013</t>
-  </si>
-  <si>
-    <t>20.1.2013</t>
-  </si>
-  <si>
-    <t>8.1.2013</t>
-  </si>
-  <si>
-    <t>28.1.2013</t>
-  </si>
-  <si>
-    <t>3.1.2013</t>
-  </si>
-  <si>
-    <t>26.1.2013</t>
-  </si>
-  <si>
-    <t>2.1.2013</t>
-  </si>
-  <si>
-    <t>1.1.2013</t>
-  </si>
-  <si>
-    <t>24.1.2013</t>
-  </si>
-  <si>
-    <t>5.1.2013</t>
-  </si>
-  <si>
-    <t>6.1.2013</t>
-  </si>
-  <si>
-    <t>18.1.2013</t>
-  </si>
-  <si>
-    <t>17.1.2013</t>
-  </si>
-  <si>
-    <t>19.1.2013</t>
-  </si>
-  <si>
-    <t>22.1.2013</t>
-  </si>
-  <si>
-    <t>14.1.2013</t>
   </si>
 </sst>
 </file>
@@ -209,7 +209,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -218,18 +218,18 @@
         <v>0.0</v>
       </c>
       <c r="D3" t="n">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
       <c r="E3" t="n">
-        <v>42.0</v>
+        <v>26.0</v>
       </c>
       <c r="F3" t="n">
-        <v>83.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -238,18 +238,18 @@
         <v>0.0</v>
       </c>
       <c r="D4" t="n">
-        <v>22.0</v>
+        <v>25.0</v>
       </c>
       <c r="E4" t="n">
-        <v>40.0</v>
+        <v>33.0</v>
       </c>
       <c r="F4" t="n">
-        <v>83.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -258,18 +258,18 @@
         <v>0.0</v>
       </c>
       <c r="D5" t="n">
-        <v>29.0</v>
+        <v>27.0</v>
       </c>
       <c r="E5" t="n">
-        <v>32.0</v>
+        <v>40.0</v>
       </c>
       <c r="F5" t="n">
-        <v>74.0</v>
+        <v>65.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -278,18 +278,18 @@
         <v>0.0</v>
       </c>
       <c r="D6" t="n">
-        <v>28.0</v>
+        <v>25.0</v>
       </c>
       <c r="E6" t="n">
-        <v>37.0</v>
+        <v>32.0</v>
       </c>
       <c r="F6" t="n">
-        <v>91.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -298,18 +298,18 @@
         <v>0.0</v>
       </c>
       <c r="D7" t="n">
-        <v>26.0</v>
+        <v>29.0</v>
       </c>
       <c r="E7" t="n">
-        <v>30.0</v>
+        <v>32.0</v>
       </c>
       <c r="F7" t="n">
-        <v>81.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -318,18 +318,18 @@
         <v>0.0</v>
       </c>
       <c r="D8" t="n">
-        <v>23.0</v>
+        <v>29.0</v>
       </c>
       <c r="E8" t="n">
-        <v>37.0</v>
+        <v>30.0</v>
       </c>
       <c r="F8" t="n">
-        <v>77.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -338,18 +338,18 @@
         <v>0.0</v>
       </c>
       <c r="D9" t="n">
-        <v>27.0</v>
+        <v>22.0</v>
       </c>
       <c r="E9" t="n">
-        <v>36.0</v>
+        <v>48.0</v>
       </c>
       <c r="F9" t="n">
-        <v>100.0</v>
+        <v>94.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -358,18 +358,18 @@
         <v>0.0</v>
       </c>
       <c r="D10" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="E10" t="n">
-        <v>41.0</v>
+        <v>38.0</v>
       </c>
       <c r="F10" t="n">
-        <v>78.0</v>
+        <v>95.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -378,18 +378,21 @@
         <v>0.0</v>
       </c>
       <c r="D11" t="n">
-        <v>31.0</v>
+        <v>23.0</v>
       </c>
       <c r="E11" t="n">
-        <v>35.0</v>
+        <v>48.0</v>
       </c>
       <c r="F11" t="n">
-        <v>73.0</v>
+        <v>85.0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -398,18 +401,18 @@
         <v>0.0</v>
       </c>
       <c r="D12" t="n">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
       <c r="E12" t="n">
-        <v>30.0</v>
+        <v>37.0</v>
       </c>
       <c r="F12" t="n">
-        <v>79.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -418,18 +421,21 @@
         <v>0.0</v>
       </c>
       <c r="D13" t="n">
-        <v>29.0</v>
+        <v>27.0</v>
       </c>
       <c r="E13" t="n">
-        <v>43.0</v>
+        <v>35.0</v>
       </c>
       <c r="F13" t="n">
-        <v>90.0</v>
+        <v>81.0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-10.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -438,18 +444,18 @@
         <v>0.0</v>
       </c>
       <c r="D14" t="n">
-        <v>25.0</v>
+        <v>29.0</v>
       </c>
       <c r="E14" t="n">
-        <v>46.0</v>
+        <v>27.0</v>
       </c>
       <c r="F14" t="n">
-        <v>85.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -458,18 +464,18 @@
         <v>0.0</v>
       </c>
       <c r="D15" t="n">
-        <v>24.0</v>
+        <v>34.0</v>
       </c>
       <c r="E15" t="n">
-        <v>36.0</v>
+        <v>39.0</v>
       </c>
       <c r="F15" t="n">
-        <v>76.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -478,18 +484,18 @@
         <v>0.0</v>
       </c>
       <c r="D16" t="n">
-        <v>25.0</v>
+        <v>22.0</v>
       </c>
       <c r="E16" t="n">
-        <v>34.0</v>
+        <v>47.0</v>
       </c>
       <c r="F16" t="n">
-        <v>75.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -498,18 +504,18 @@
         <v>0.0</v>
       </c>
       <c r="D17" t="n">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
       <c r="E17" t="n">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F17" t="n">
-        <v>75.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="n">
         <v>0.0</v>
@@ -518,18 +524,18 @@
         <v>0.0</v>
       </c>
       <c r="D18" t="n">
-        <v>28.0</v>
+        <v>17.0</v>
       </c>
       <c r="E18" t="n">
-        <v>34.0</v>
+        <v>38.0</v>
       </c>
       <c r="F18" t="n">
-        <v>76.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" t="n">
         <v>0.0</v>
@@ -538,18 +544,18 @@
         <v>0.0</v>
       </c>
       <c r="D19" t="n">
-        <v>29.0</v>
+        <v>21.0</v>
       </c>
       <c r="E19" t="n">
-        <v>44.0</v>
+        <v>42.0</v>
       </c>
       <c r="F19" t="n">
-        <v>80.0</v>
+        <v>78.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20" t="n">
         <v>1.0</v>
@@ -558,18 +564,18 @@
         <v>0.0</v>
       </c>
       <c r="D20" t="n">
-        <v>21.0</v>
+        <v>25.0</v>
       </c>
       <c r="E20" t="n">
-        <v>41.0</v>
+        <v>35.0</v>
       </c>
       <c r="F20" t="n">
-        <v>88.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" t="n">
         <v>0.0</v>
@@ -578,18 +584,18 @@
         <v>0.0</v>
       </c>
       <c r="D21" t="n">
-        <v>30.0</v>
+        <v>28.0</v>
       </c>
       <c r="E21" t="n">
-        <v>46.0</v>
+        <v>31.0</v>
       </c>
       <c r="F21" t="n">
-        <v>73.0</v>
+        <v>82.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" t="n">
         <v>0.0</v>
@@ -598,18 +604,18 @@
         <v>0.0</v>
       </c>
       <c r="D22" t="n">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
       <c r="E22" t="n">
-        <v>33.0</v>
+        <v>31.0</v>
       </c>
       <c r="F22" t="n">
-        <v>90.0</v>
+        <v>78.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23" t="n">
         <v>0.0</v>
@@ -618,18 +624,18 @@
         <v>0.0</v>
       </c>
       <c r="D23" t="n">
-        <v>26.0</v>
+        <v>22.0</v>
       </c>
       <c r="E23" t="n">
-        <v>32.0</v>
+        <v>36.0</v>
       </c>
       <c r="F23" t="n">
-        <v>76.0</v>
+        <v>75.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B24" t="n">
         <v>0.0</v>
@@ -638,18 +644,18 @@
         <v>0.0</v>
       </c>
       <c r="D24" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="E24" t="n">
-        <v>22.0</v>
+        <v>36.0</v>
       </c>
       <c r="F24" t="n">
-        <v>67.0</v>
+        <v>88.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25" t="n">
         <v>0.0</v>
@@ -658,18 +664,18 @@
         <v>0.0</v>
       </c>
       <c r="D25" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="E25" t="n">
-        <v>41.0</v>
+        <v>42.0</v>
       </c>
       <c r="F25" t="n">
-        <v>81.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B26" t="n">
         <v>0.0</v>
@@ -678,18 +684,21 @@
         <v>0.0</v>
       </c>
       <c r="D26" t="n">
-        <v>29.0</v>
+        <v>21.0</v>
       </c>
       <c r="E26" t="n">
-        <v>35.0</v>
+        <v>42.0</v>
       </c>
       <c r="F26" t="n">
-        <v>70.0</v>
+        <v>89.0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>50.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B27" t="n">
         <v>0.0</v>
@@ -698,18 +707,18 @@
         <v>0.0</v>
       </c>
       <c r="D27" t="n">
-        <v>31.0</v>
+        <v>27.0</v>
       </c>
       <c r="E27" t="n">
-        <v>37.0</v>
+        <v>34.0</v>
       </c>
       <c r="F27" t="n">
-        <v>82.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B28" t="n">
         <v>0.0</v>
@@ -718,18 +727,18 @@
         <v>0.0</v>
       </c>
       <c r="D28" t="n">
-        <v>24.0</v>
+        <v>30.0</v>
       </c>
       <c r="E28" t="n">
-        <v>38.0</v>
+        <v>32.0</v>
       </c>
       <c r="F28" t="n">
-        <v>78.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29" t="n">
         <v>0.0</v>
@@ -738,38 +747,38 @@
         <v>0.0</v>
       </c>
       <c r="D29" t="n">
-        <v>21.0</v>
+        <v>25.0</v>
       </c>
       <c r="E29" t="n">
-        <v>40.0</v>
+        <v>38.0</v>
       </c>
       <c r="F29" t="n">
-        <v>76.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C30" t="n">
         <v>0.0</v>
       </c>
       <c r="D30" t="n">
-        <v>26.0</v>
+        <v>19.0</v>
       </c>
       <c r="E30" t="n">
-        <v>31.0</v>
+        <v>42.0</v>
       </c>
       <c r="F30" t="n">
-        <v>79.0</v>
+        <v>88.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B31" t="n">
         <v>0.0</v>
@@ -778,18 +787,18 @@
         <v>0.0</v>
       </c>
       <c r="D31" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="E31" t="n">
-        <v>38.0</v>
+        <v>41.0</v>
       </c>
       <c r="F31" t="n">
-        <v>93.0</v>
+        <v>98.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B32" t="n">
         <v>0.0</v>
@@ -798,30 +807,33 @@
         <v>0.0</v>
       </c>
       <c r="D32" t="n">
-        <v>26.0</v>
+        <v>30.0</v>
       </c>
       <c r="E32" t="n">
-        <v>47.0</v>
+        <v>42.0</v>
       </c>
       <c r="F32" t="n">
-        <v>77.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>8</v>
+        <v>38</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.0</v>
       </c>
       <c r="C33" t="n">
         <v>0.0</v>
       </c>
       <c r="D33" t="n">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
       <c r="E33" t="n">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
       <c r="F33" t="n">
-        <v>79.0</v>
+        <v>89.0</v>
       </c>
     </row>
   </sheetData>

--- a/TestWithBash/ExcelTest2.xlsx
+++ b/TestWithBash/ExcelTest2.xlsx
@@ -218,13 +218,13 @@
         <v>0.0</v>
       </c>
       <c r="D3" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="E3" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F3" t="n">
-        <v>67.0</v>
+        <v>68.0</v>
       </c>
     </row>
     <row r="4">
@@ -241,10 +241,10 @@
         <v>25.0</v>
       </c>
       <c r="E4" t="n">
-        <v>33.0</v>
+        <v>34.0</v>
       </c>
       <c r="F4" t="n">
-        <v>80.0</v>
+        <v>76.0</v>
       </c>
     </row>
     <row r="5">
@@ -258,7 +258,7 @@
         <v>0.0</v>
       </c>
       <c r="D5" t="n">
-        <v>27.0</v>
+        <v>25.0</v>
       </c>
       <c r="E5" t="n">
         <v>40.0</v>
@@ -278,13 +278,13 @@
         <v>0.0</v>
       </c>
       <c r="D6" t="n">
-        <v>25.0</v>
+        <v>29.0</v>
       </c>
       <c r="E6" t="n">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
       <c r="F6" t="n">
-        <v>74.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="7">
@@ -298,13 +298,13 @@
         <v>0.0</v>
       </c>
       <c r="D7" t="n">
-        <v>29.0</v>
+        <v>32.0</v>
       </c>
       <c r="E7" t="n">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
       <c r="F7" t="n">
-        <v>77.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="8">
@@ -318,13 +318,13 @@
         <v>0.0</v>
       </c>
       <c r="D8" t="n">
-        <v>29.0</v>
+        <v>31.0</v>
       </c>
       <c r="E8" t="n">
-        <v>30.0</v>
+        <v>36.0</v>
       </c>
       <c r="F8" t="n">
-        <v>79.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="9">
@@ -338,13 +338,13 @@
         <v>0.0</v>
       </c>
       <c r="D9" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="E9" t="n">
-        <v>48.0</v>
+        <v>46.0</v>
       </c>
       <c r="F9" t="n">
-        <v>94.0</v>
+        <v>78.0</v>
       </c>
     </row>
     <row r="10">
@@ -358,13 +358,13 @@
         <v>0.0</v>
       </c>
       <c r="D10" t="n">
-        <v>26.0</v>
+        <v>29.0</v>
       </c>
       <c r="E10" t="n">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="F10" t="n">
-        <v>95.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="11">
@@ -378,13 +378,13 @@
         <v>0.0</v>
       </c>
       <c r="D11" t="n">
-        <v>23.0</v>
+        <v>29.0</v>
       </c>
       <c r="E11" t="n">
-        <v>48.0</v>
+        <v>40.0</v>
       </c>
       <c r="F11" t="n">
-        <v>85.0</v>
+        <v>77.0</v>
       </c>
       <c r="G11" t="n">
         <v>20.0</v>
@@ -401,13 +401,13 @@
         <v>0.0</v>
       </c>
       <c r="D12" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="E12" t="n">
-        <v>37.0</v>
+        <v>39.0</v>
       </c>
       <c r="F12" t="n">
-        <v>77.0</v>
+        <v>75.0</v>
       </c>
     </row>
     <row r="13">
@@ -421,13 +421,13 @@
         <v>0.0</v>
       </c>
       <c r="D13" t="n">
-        <v>27.0</v>
+        <v>24.0</v>
       </c>
       <c r="E13" t="n">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F13" t="n">
-        <v>81.0</v>
+        <v>74.0</v>
       </c>
       <c r="G13" t="n">
         <v>-10.0</v>
@@ -444,13 +444,13 @@
         <v>0.0</v>
       </c>
       <c r="D14" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="E14" t="n">
         <v>29.0</v>
       </c>
-      <c r="E14" t="n">
-        <v>27.0</v>
-      </c>
       <c r="F14" t="n">
-        <v>84.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="15">
@@ -464,13 +464,13 @@
         <v>0.0</v>
       </c>
       <c r="D15" t="n">
-        <v>34.0</v>
+        <v>32.0</v>
       </c>
       <c r="E15" t="n">
-        <v>39.0</v>
+        <v>37.0</v>
       </c>
       <c r="F15" t="n">
-        <v>70.0</v>
+        <v>69.0</v>
       </c>
     </row>
     <row r="16">
@@ -487,10 +487,10 @@
         <v>22.0</v>
       </c>
       <c r="E16" t="n">
-        <v>47.0</v>
+        <v>48.0</v>
       </c>
       <c r="F16" t="n">
-        <v>79.0</v>
+        <v>81.0</v>
       </c>
     </row>
     <row r="17">
@@ -504,13 +504,13 @@
         <v>0.0</v>
       </c>
       <c r="D17" t="n">
-        <v>25.0</v>
+        <v>22.0</v>
       </c>
       <c r="E17" t="n">
-        <v>37.0</v>
+        <v>41.0</v>
       </c>
       <c r="F17" t="n">
-        <v>73.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="18">
@@ -527,10 +527,10 @@
         <v>17.0</v>
       </c>
       <c r="E18" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="F18" t="n">
-        <v>77.0</v>
+        <v>78.0</v>
       </c>
     </row>
     <row r="19">
@@ -544,13 +544,13 @@
         <v>0.0</v>
       </c>
       <c r="D19" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="E19" t="n">
-        <v>42.0</v>
+        <v>36.0</v>
       </c>
       <c r="F19" t="n">
-        <v>78.0</v>
+        <v>75.0</v>
       </c>
     </row>
     <row r="20">
@@ -564,13 +564,13 @@
         <v>0.0</v>
       </c>
       <c r="D20" t="n">
-        <v>25.0</v>
+        <v>22.0</v>
       </c>
       <c r="E20" t="n">
-        <v>35.0</v>
+        <v>41.0</v>
       </c>
       <c r="F20" t="n">
-        <v>79.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="21">
@@ -584,13 +584,13 @@
         <v>0.0</v>
       </c>
       <c r="D21" t="n">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
       <c r="E21" t="n">
-        <v>31.0</v>
+        <v>34.0</v>
       </c>
       <c r="F21" t="n">
-        <v>82.0</v>
+        <v>71.0</v>
       </c>
     </row>
     <row r="22">
@@ -604,7 +604,7 @@
         <v>0.0</v>
       </c>
       <c r="D22" t="n">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
       <c r="E22" t="n">
         <v>31.0</v>
@@ -624,13 +624,13 @@
         <v>0.0</v>
       </c>
       <c r="D23" t="n">
-        <v>22.0</v>
+        <v>26.0</v>
       </c>
       <c r="E23" t="n">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="F23" t="n">
-        <v>75.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="24">
@@ -644,13 +644,13 @@
         <v>0.0</v>
       </c>
       <c r="D24" t="n">
-        <v>23.0</v>
+        <v>26.0</v>
       </c>
       <c r="E24" t="n">
-        <v>36.0</v>
+        <v>39.0</v>
       </c>
       <c r="F24" t="n">
-        <v>88.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="25">
@@ -667,10 +667,10 @@
         <v>24.0</v>
       </c>
       <c r="E25" t="n">
-        <v>42.0</v>
+        <v>41.0</v>
       </c>
       <c r="F25" t="n">
-        <v>79.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="26">
@@ -684,13 +684,13 @@
         <v>0.0</v>
       </c>
       <c r="D26" t="n">
-        <v>21.0</v>
+        <v>19.0</v>
       </c>
       <c r="E26" t="n">
-        <v>42.0</v>
+        <v>41.0</v>
       </c>
       <c r="F26" t="n">
-        <v>89.0</v>
+        <v>90.0</v>
       </c>
       <c r="G26" t="n">
         <v>50.0</v>
@@ -707,13 +707,13 @@
         <v>0.0</v>
       </c>
       <c r="D27" t="n">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
       <c r="E27" t="n">
-        <v>34.0</v>
+        <v>31.0</v>
       </c>
       <c r="F27" t="n">
-        <v>85.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="28">
@@ -727,13 +727,13 @@
         <v>0.0</v>
       </c>
       <c r="D28" t="n">
-        <v>30.0</v>
+        <v>28.0</v>
       </c>
       <c r="E28" t="n">
-        <v>32.0</v>
+        <v>26.0</v>
       </c>
       <c r="F28" t="n">
-        <v>79.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="29">
@@ -747,13 +747,13 @@
         <v>0.0</v>
       </c>
       <c r="D29" t="n">
-        <v>25.0</v>
+        <v>30.0</v>
       </c>
       <c r="E29" t="n">
         <v>38.0</v>
       </c>
       <c r="F29" t="n">
-        <v>66.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="30">
@@ -761,19 +761,19 @@
         <v>35</v>
       </c>
       <c r="B30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C30" t="n">
         <v>0.0</v>
       </c>
       <c r="D30" t="n">
-        <v>19.0</v>
+        <v>24.0</v>
       </c>
       <c r="E30" t="n">
-        <v>42.0</v>
+        <v>36.0</v>
       </c>
       <c r="F30" t="n">
-        <v>88.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="31">
@@ -787,13 +787,13 @@
         <v>0.0</v>
       </c>
       <c r="D31" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="E31" t="n">
-        <v>41.0</v>
+        <v>40.0</v>
       </c>
       <c r="F31" t="n">
-        <v>98.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="32">
@@ -807,13 +807,13 @@
         <v>0.0</v>
       </c>
       <c r="D32" t="n">
-        <v>30.0</v>
+        <v>32.0</v>
       </c>
       <c r="E32" t="n">
-        <v>42.0</v>
+        <v>46.0</v>
       </c>
       <c r="F32" t="n">
-        <v>100.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="33">
@@ -830,10 +830,10 @@
         <v>25.0</v>
       </c>
       <c r="E33" t="n">
-        <v>38.0</v>
+        <v>35.0</v>
       </c>
       <c r="F33" t="n">
-        <v>89.0</v>
+        <v>88.0</v>
       </c>
     </row>
   </sheetData>

--- a/TestWithBash/ExcelTest2.xlsx
+++ b/TestWithBash/ExcelTest2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <si>
     <t xml:space="preserve">Ergebnis: </t>
   </si>
@@ -129,6 +129,183 @@
   </si>
   <si>
     <t>31.1.2013</t>
+  </si>
+  <si>
+    <t>1.2.2013</t>
+  </si>
+  <si>
+    <t>2.2.2013</t>
+  </si>
+  <si>
+    <t>3.2.2013</t>
+  </si>
+  <si>
+    <t>4.2.2013</t>
+  </si>
+  <si>
+    <t>5.2.2013</t>
+  </si>
+  <si>
+    <t>6.2.2013</t>
+  </si>
+  <si>
+    <t>7.2.2013</t>
+  </si>
+  <si>
+    <t>8.2.2013</t>
+  </si>
+  <si>
+    <t>9.2.2013</t>
+  </si>
+  <si>
+    <t>10.2.2013</t>
+  </si>
+  <si>
+    <t>11.2.2013</t>
+  </si>
+  <si>
+    <t>12.2.2013</t>
+  </si>
+  <si>
+    <t>13.2.2013</t>
+  </si>
+  <si>
+    <t>14.2.2013</t>
+  </si>
+  <si>
+    <t>15.2.2013</t>
+  </si>
+  <si>
+    <t>16.2.2013</t>
+  </si>
+  <si>
+    <t>17.2.2013</t>
+  </si>
+  <si>
+    <t>18.2.2013</t>
+  </si>
+  <si>
+    <t>19.2.2013</t>
+  </si>
+  <si>
+    <t>20.2.2013</t>
+  </si>
+  <si>
+    <t>21.2.2013</t>
+  </si>
+  <si>
+    <t>22.2.2013</t>
+  </si>
+  <si>
+    <t>23.2.2013</t>
+  </si>
+  <si>
+    <t>24.2.2013</t>
+  </si>
+  <si>
+    <t>25.2.2013</t>
+  </si>
+  <si>
+    <t>26.2.2013</t>
+  </si>
+  <si>
+    <t>27.2.2013</t>
+  </si>
+  <si>
+    <t>28.2.2013</t>
+  </si>
+  <si>
+    <t>1.3.2013</t>
+  </si>
+  <si>
+    <t>2.3.2013</t>
+  </si>
+  <si>
+    <t>3.3.2013</t>
+  </si>
+  <si>
+    <t>4.3.2013</t>
+  </si>
+  <si>
+    <t>5.3.2013</t>
+  </si>
+  <si>
+    <t>6.3.2013</t>
+  </si>
+  <si>
+    <t>7.3.2013</t>
+  </si>
+  <si>
+    <t>8.3.2013</t>
+  </si>
+  <si>
+    <t>9.3.2013</t>
+  </si>
+  <si>
+    <t>10.3.2013</t>
+  </si>
+  <si>
+    <t>11.3.2013</t>
+  </si>
+  <si>
+    <t>12.3.2013</t>
+  </si>
+  <si>
+    <t>13.3.2013</t>
+  </si>
+  <si>
+    <t>14.3.2013</t>
+  </si>
+  <si>
+    <t>15.3.2013</t>
+  </si>
+  <si>
+    <t>16.3.2013</t>
+  </si>
+  <si>
+    <t>17.3.2013</t>
+  </si>
+  <si>
+    <t>18.3.2013</t>
+  </si>
+  <si>
+    <t>19.3.2013</t>
+  </si>
+  <si>
+    <t>20.3.2013</t>
+  </si>
+  <si>
+    <t>21.3.2013</t>
+  </si>
+  <si>
+    <t>22.3.2013</t>
+  </si>
+  <si>
+    <t>23.3.2013</t>
+  </si>
+  <si>
+    <t>24.3.2013</t>
+  </si>
+  <si>
+    <t>25.3.2013</t>
+  </si>
+  <si>
+    <t>26.3.2013</t>
+  </si>
+  <si>
+    <t>27.3.2013</t>
+  </si>
+  <si>
+    <t>28.3.2013</t>
+  </si>
+  <si>
+    <t>29.3.2013</t>
+  </si>
+  <si>
+    <t>30.3.2013</t>
+  </si>
+  <si>
+    <t>31.3.2013</t>
   </si>
 </sst>
 </file>
@@ -218,13 +395,13 @@
         <v>0.0</v>
       </c>
       <c r="D3" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="E3" t="n">
         <v>24.0</v>
       </c>
-      <c r="E3" t="n">
-        <v>27.0</v>
-      </c>
       <c r="F3" t="n">
-        <v>68.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="4">
@@ -244,7 +421,7 @@
         <v>34.0</v>
       </c>
       <c r="F4" t="n">
-        <v>76.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="5">
@@ -258,13 +435,13 @@
         <v>0.0</v>
       </c>
       <c r="D5" t="n">
-        <v>25.0</v>
+        <v>28.0</v>
       </c>
       <c r="E5" t="n">
-        <v>40.0</v>
+        <v>35.0</v>
       </c>
       <c r="F5" t="n">
-        <v>65.0</v>
+        <v>71.0</v>
       </c>
     </row>
     <row r="6">
@@ -278,13 +455,13 @@
         <v>0.0</v>
       </c>
       <c r="D6" t="n">
-        <v>29.0</v>
+        <v>25.0</v>
       </c>
       <c r="E6" t="n">
-        <v>33.0</v>
+        <v>30.0</v>
       </c>
       <c r="F6" t="n">
-        <v>79.0</v>
+        <v>71.0</v>
       </c>
     </row>
     <row r="7">
@@ -298,13 +475,13 @@
         <v>0.0</v>
       </c>
       <c r="D7" t="n">
-        <v>32.0</v>
+        <v>31.0</v>
       </c>
       <c r="E7" t="n">
-        <v>33.0</v>
+        <v>35.0</v>
       </c>
       <c r="F7" t="n">
-        <v>84.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="8">
@@ -318,13 +495,13 @@
         <v>0.0</v>
       </c>
       <c r="D8" t="n">
-        <v>31.0</v>
+        <v>26.0</v>
       </c>
       <c r="E8" t="n">
         <v>36.0</v>
       </c>
       <c r="F8" t="n">
-        <v>84.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="9">
@@ -338,10 +515,10 @@
         <v>0.0</v>
       </c>
       <c r="D9" t="n">
-        <v>24.0</v>
+        <v>21.0</v>
       </c>
       <c r="E9" t="n">
-        <v>46.0</v>
+        <v>54.0</v>
       </c>
       <c r="F9" t="n">
         <v>78.0</v>
@@ -358,13 +535,13 @@
         <v>0.0</v>
       </c>
       <c r="D10" t="n">
-        <v>29.0</v>
+        <v>24.0</v>
       </c>
       <c r="E10" t="n">
-        <v>43.0</v>
+        <v>42.0</v>
       </c>
       <c r="F10" t="n">
-        <v>84.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="11">
@@ -378,13 +555,13 @@
         <v>0.0</v>
       </c>
       <c r="D11" t="n">
-        <v>29.0</v>
+        <v>23.0</v>
       </c>
       <c r="E11" t="n">
-        <v>40.0</v>
+        <v>41.0</v>
       </c>
       <c r="F11" t="n">
-        <v>77.0</v>
+        <v>81.0</v>
       </c>
       <c r="G11" t="n">
         <v>20.0</v>
@@ -401,13 +578,13 @@
         <v>0.0</v>
       </c>
       <c r="D12" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="E12" t="n">
-        <v>39.0</v>
+        <v>36.0</v>
       </c>
       <c r="F12" t="n">
-        <v>75.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="13">
@@ -421,13 +598,13 @@
         <v>0.0</v>
       </c>
       <c r="D13" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="E13" t="n">
-        <v>37.0</v>
+        <v>39.0</v>
       </c>
       <c r="F13" t="n">
-        <v>74.0</v>
+        <v>72.0</v>
       </c>
       <c r="G13" t="n">
         <v>-10.0</v>
@@ -444,13 +621,13 @@
         <v>0.0</v>
       </c>
       <c r="D14" t="n">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
       <c r="E14" t="n">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
       <c r="F14" t="n">
-        <v>79.0</v>
+        <v>68.0</v>
       </c>
     </row>
     <row r="15">
@@ -464,13 +641,13 @@
         <v>0.0</v>
       </c>
       <c r="D15" t="n">
-        <v>32.0</v>
+        <v>26.0</v>
       </c>
       <c r="E15" t="n">
-        <v>37.0</v>
+        <v>36.0</v>
       </c>
       <c r="F15" t="n">
-        <v>69.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="16">
@@ -484,13 +661,13 @@
         <v>0.0</v>
       </c>
       <c r="D16" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="E16" t="n">
-        <v>48.0</v>
+        <v>45.0</v>
       </c>
       <c r="F16" t="n">
-        <v>81.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="17">
@@ -504,13 +681,13 @@
         <v>0.0</v>
       </c>
       <c r="D17" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="E17" t="n">
-        <v>41.0</v>
+        <v>37.0</v>
       </c>
       <c r="F17" t="n">
-        <v>74.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="18">
@@ -524,13 +701,13 @@
         <v>0.0</v>
       </c>
       <c r="D18" t="n">
-        <v>17.0</v>
+        <v>20.0</v>
       </c>
       <c r="E18" t="n">
-        <v>39.0</v>
+        <v>38.0</v>
       </c>
       <c r="F18" t="n">
-        <v>78.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="19">
@@ -544,13 +721,13 @@
         <v>0.0</v>
       </c>
       <c r="D19" t="n">
-        <v>22.0</v>
+        <v>20.0</v>
       </c>
       <c r="E19" t="n">
-        <v>36.0</v>
+        <v>41.0</v>
       </c>
       <c r="F19" t="n">
-        <v>75.0</v>
+        <v>71.0</v>
       </c>
     </row>
     <row r="20">
@@ -558,19 +735,19 @@
         <v>25</v>
       </c>
       <c r="B20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C20" t="n">
         <v>0.0</v>
       </c>
       <c r="D20" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="E20" t="n">
-        <v>41.0</v>
+        <v>38.0</v>
       </c>
       <c r="F20" t="n">
-        <v>80.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="21">
@@ -584,13 +761,13 @@
         <v>0.0</v>
       </c>
       <c r="D21" t="n">
-        <v>27.0</v>
+        <v>22.0</v>
       </c>
       <c r="E21" t="n">
-        <v>34.0</v>
+        <v>32.0</v>
       </c>
       <c r="F21" t="n">
-        <v>71.0</v>
+        <v>68.0</v>
       </c>
     </row>
     <row r="22">
@@ -604,13 +781,13 @@
         <v>0.0</v>
       </c>
       <c r="D22" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="E22" t="n">
         <v>28.0</v>
       </c>
-      <c r="E22" t="n">
-        <v>31.0</v>
-      </c>
       <c r="F22" t="n">
-        <v>78.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="23">
@@ -627,10 +804,10 @@
         <v>26.0</v>
       </c>
       <c r="E23" t="n">
-        <v>38.0</v>
+        <v>44.0</v>
       </c>
       <c r="F23" t="n">
-        <v>74.0</v>
+        <v>68.0</v>
       </c>
     </row>
     <row r="24">
@@ -647,10 +824,10 @@
         <v>26.0</v>
       </c>
       <c r="E24" t="n">
-        <v>39.0</v>
+        <v>38.0</v>
       </c>
       <c r="F24" t="n">
-        <v>92.0</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="25">
@@ -664,7 +841,7 @@
         <v>0.0</v>
       </c>
       <c r="D25" t="n">
-        <v>24.0</v>
+        <v>27.0</v>
       </c>
       <c r="E25" t="n">
         <v>41.0</v>
@@ -684,16 +861,13 @@
         <v>0.0</v>
       </c>
       <c r="D26" t="n">
-        <v>19.0</v>
+        <v>28.0</v>
       </c>
       <c r="E26" t="n">
-        <v>41.0</v>
+        <v>36.0</v>
       </c>
       <c r="F26" t="n">
-        <v>90.0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>50.0</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="27">
@@ -707,10 +881,10 @@
         <v>0.0</v>
       </c>
       <c r="D27" t="n">
-        <v>29.0</v>
+        <v>22.0</v>
       </c>
       <c r="E27" t="n">
-        <v>31.0</v>
+        <v>34.0</v>
       </c>
       <c r="F27" t="n">
         <v>79.0</v>
@@ -727,13 +901,13 @@
         <v>0.0</v>
       </c>
       <c r="D28" t="n">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
       <c r="E28" t="n">
-        <v>26.0</v>
+        <v>30.0</v>
       </c>
       <c r="F28" t="n">
-        <v>92.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="29">
@@ -747,10 +921,10 @@
         <v>0.0</v>
       </c>
       <c r="D29" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="E29" t="n">
-        <v>38.0</v>
+        <v>37.0</v>
       </c>
       <c r="F29" t="n">
         <v>73.0</v>
@@ -767,13 +941,13 @@
         <v>0.0</v>
       </c>
       <c r="D30" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="E30" t="n">
-        <v>36.0</v>
+        <v>42.0</v>
       </c>
       <c r="F30" t="n">
-        <v>85.0</v>
+        <v>82.0</v>
       </c>
     </row>
     <row r="31">
@@ -787,10 +961,10 @@
         <v>0.0</v>
       </c>
       <c r="D31" t="n">
-        <v>29.0</v>
+        <v>25.0</v>
       </c>
       <c r="E31" t="n">
-        <v>40.0</v>
+        <v>36.0</v>
       </c>
       <c r="F31" t="n">
         <v>100.0</v>
@@ -807,10 +981,10 @@
         <v>0.0</v>
       </c>
       <c r="D32" t="n">
-        <v>32.0</v>
+        <v>29.0</v>
       </c>
       <c r="E32" t="n">
-        <v>46.0</v>
+        <v>42.0</v>
       </c>
       <c r="F32" t="n">
         <v>92.0</v>
@@ -827,13 +1001,1196 @@
         <v>0.0</v>
       </c>
       <c r="D33" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="E33" t="n">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="F33" t="n">
         <v>88.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>95.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>89.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>91.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>97.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>94.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>92.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>85.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>90.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>77.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>88.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>92.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>87.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>93.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>84.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>81.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>81.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>93.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>90.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>92.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>99.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>90.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>87.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>85.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>93.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>92.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>83.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>89.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>73.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>85.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>90.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>93.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>72</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>84.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>73</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>74</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>80.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>75</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>75.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>76</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>88.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>87.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>78</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>90.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>79</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>93.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>80</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D75" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="F75" t="n">
+        <v>89.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>81</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D76" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="E76" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="F76" t="n">
+        <v>75.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>82</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D77" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="E77" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="F77" t="n">
+        <v>81.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>83</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D78" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="E78" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F78" t="n">
+        <v>80.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>84</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D79" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="E79" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="F79" t="n">
+        <v>96.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>85</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D80" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="E80" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="F80" t="n">
+        <v>83.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>86</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D81" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="E81" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="F81" t="n">
+        <v>95.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>87</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D82" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="E82" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="F82" t="n">
+        <v>85.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>88</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D83" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="E83" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="F83" t="n">
+        <v>84.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>89</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D84" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="E84" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F84" t="n">
+        <v>77.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>90</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D85" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="E85" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="F85" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="G85" t="n">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>91</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D86" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="E86" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="F86" t="n">
+        <v>86.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>92</v>
+      </c>
+      <c r="B87" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D87" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="E87" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="F87" t="n">
+        <v>80.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>93</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D88" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="E88" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="F88" t="n">
+        <v>82.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>94</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D89" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="E89" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="F89" t="n">
+        <v>90.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>95</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D90" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="E90" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="F90" t="n">
+        <v>82.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>96</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D91" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="E91" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="F91" t="n">
+        <v>74.0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>97</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D92" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="E92" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="F92" t="n">
+        <v>72.0</v>
       </c>
     </row>
   </sheetData>

--- a/TestWithBash/ExcelTest2.xlsx
+++ b/TestWithBash/ExcelTest2.xlsx
@@ -20,19 +20,19 @@
     <t>Datum</t>
   </si>
   <si>
-    <t>k87</t>
-  </si>
-  <si>
-    <t>K87 Kapsel</t>
-  </si>
-  <si>
-    <t>mikrofon</t>
-  </si>
-  <si>
-    <t>neumann</t>
-  </si>
-  <si>
-    <t>nickel</t>
+    <t>neumann(-0.596)</t>
+  </si>
+  <si>
+    <t>mikrofon(0.997)</t>
+  </si>
+  <si>
+    <t>nickel(-0.693)</t>
+  </si>
+  <si>
+    <t>k87(NaN)</t>
+  </si>
+  <si>
+    <t>K87 Kapsel(NaN)</t>
   </si>
   <si>
     <t>Produkt</t>
@@ -389,19 +389,19 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="D3" t="n">
-        <v>25.0</v>
+        <v>62.0</v>
       </c>
       <c r="E3" t="n">
-        <v>24.0</v>
+        <v>0.0</v>
       </c>
       <c r="F3" t="n">
-        <v>66.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
@@ -409,19 +409,19 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="D4" t="n">
-        <v>25.0</v>
+        <v>67.0</v>
       </c>
       <c r="E4" t="n">
-        <v>34.0</v>
+        <v>0.0</v>
       </c>
       <c r="F4" t="n">
-        <v>74.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="5">
@@ -429,19 +429,19 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0</v>
+        <v>36.0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="D5" t="n">
-        <v>28.0</v>
+        <v>63.0</v>
       </c>
       <c r="E5" t="n">
-        <v>35.0</v>
+        <v>0.0</v>
       </c>
       <c r="F5" t="n">
-        <v>71.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="6">
@@ -449,19 +449,19 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="D6" t="n">
-        <v>25.0</v>
+        <v>71.0</v>
       </c>
       <c r="E6" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
       <c r="F6" t="n">
-        <v>71.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="7">
@@ -469,19 +469,19 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0</v>
+        <v>37.0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="D7" t="n">
-        <v>31.0</v>
+        <v>70.0</v>
       </c>
       <c r="E7" t="n">
-        <v>35.0</v>
+        <v>0.0</v>
       </c>
       <c r="F7" t="n">
-        <v>80.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="8">
@@ -489,19 +489,19 @@
         <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="D8" t="n">
-        <v>26.0</v>
+        <v>66.0</v>
       </c>
       <c r="E8" t="n">
-        <v>36.0</v>
+        <v>0.0</v>
       </c>
       <c r="F8" t="n">
-        <v>77.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
@@ -509,19 +509,19 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0</v>
+        <v>48.0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="D9" t="n">
-        <v>21.0</v>
+        <v>80.0</v>
       </c>
       <c r="E9" t="n">
-        <v>54.0</v>
+        <v>0.0</v>
       </c>
       <c r="F9" t="n">
-        <v>78.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="10">
@@ -529,19 +529,19 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0</v>
+        <v>41.0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="D10" t="n">
-        <v>24.0</v>
+        <v>75.0</v>
       </c>
       <c r="E10" t="n">
-        <v>42.0</v>
+        <v>0.0</v>
       </c>
       <c r="F10" t="n">
-        <v>79.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="11">
@@ -549,22 +549,22 @@
         <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0</v>
+        <v>38.0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="D11" t="n">
-        <v>23.0</v>
+        <v>75.0</v>
       </c>
       <c r="E11" t="n">
-        <v>41.0</v>
+        <v>0.0</v>
       </c>
       <c r="F11" t="n">
-        <v>81.0</v>
+        <v>0.0</v>
       </c>
       <c r="G11" t="n">
-        <v>20.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="12">
@@ -572,19 +572,19 @@
         <v>17</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0</v>
+        <v>34.0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="D12" t="n">
-        <v>28.0</v>
+        <v>65.0</v>
       </c>
       <c r="E12" t="n">
-        <v>36.0</v>
+        <v>0.0</v>
       </c>
       <c r="F12" t="n">
-        <v>77.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="13">
@@ -592,22 +592,19 @@
         <v>18</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="D13" t="n">
-        <v>22.0</v>
+        <v>67.0</v>
       </c>
       <c r="E13" t="n">
-        <v>39.0</v>
+        <v>0.0</v>
       </c>
       <c r="F13" t="n">
-        <v>72.0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-10.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="14">
@@ -615,19 +612,19 @@
         <v>19</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="D14" t="n">
-        <v>30.0</v>
+        <v>76.0</v>
       </c>
       <c r="E14" t="n">
-        <v>26.0</v>
+        <v>0.0</v>
       </c>
       <c r="F14" t="n">
-        <v>68.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="15">
@@ -635,19 +632,19 @@
         <v>20</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="D15" t="n">
-        <v>26.0</v>
+        <v>67.0</v>
       </c>
       <c r="E15" t="n">
-        <v>36.0</v>
+        <v>0.0</v>
       </c>
       <c r="F15" t="n">
-        <v>72.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="16">
@@ -655,19 +652,19 @@
         <v>21</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0</v>
+        <v>45.0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="D16" t="n">
-        <v>24.0</v>
+        <v>65.0</v>
       </c>
       <c r="E16" t="n">
-        <v>45.0</v>
+        <v>0.0</v>
       </c>
       <c r="F16" t="n">
-        <v>80.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="17">
@@ -675,19 +672,19 @@
         <v>22</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0</v>
+        <v>39.0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="D17" t="n">
-        <v>24.0</v>
+        <v>69.0</v>
       </c>
       <c r="E17" t="n">
-        <v>37.0</v>
+        <v>0.0</v>
       </c>
       <c r="F17" t="n">
-        <v>77.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="18">
@@ -695,19 +692,19 @@
         <v>23</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0</v>
+        <v>19.0</v>
       </c>
       <c r="D18" t="n">
-        <v>20.0</v>
+        <v>73.0</v>
       </c>
       <c r="E18" t="n">
-        <v>38.0</v>
+        <v>0.0</v>
       </c>
       <c r="F18" t="n">
-        <v>79.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="19">
@@ -715,19 +712,19 @@
         <v>24</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0</v>
+        <v>41.0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="D19" t="n">
-        <v>20.0</v>
+        <v>71.0</v>
       </c>
       <c r="E19" t="n">
-        <v>41.0</v>
+        <v>0.0</v>
       </c>
       <c r="F19" t="n">
-        <v>71.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="20">
@@ -735,19 +732,19 @@
         <v>25</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0</v>
+        <v>35.0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="D20" t="n">
-        <v>24.0</v>
+        <v>71.0</v>
       </c>
       <c r="E20" t="n">
-        <v>38.0</v>
+        <v>0.0</v>
       </c>
       <c r="F20" t="n">
-        <v>67.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="21">
@@ -755,19 +752,19 @@
         <v>26</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="D21" t="n">
-        <v>22.0</v>
+        <v>66.0</v>
       </c>
       <c r="E21" t="n">
-        <v>32.0</v>
+        <v>0.0</v>
       </c>
       <c r="F21" t="n">
-        <v>68.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="22">
@@ -775,19 +772,19 @@
         <v>27</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0</v>
+        <v>21.0</v>
       </c>
       <c r="D22" t="n">
-        <v>23.0</v>
+        <v>72.0</v>
       </c>
       <c r="E22" t="n">
-        <v>28.0</v>
+        <v>0.0</v>
       </c>
       <c r="F22" t="n">
-        <v>74.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="23">
@@ -795,19 +792,19 @@
         <v>28</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0</v>
+        <v>21.0</v>
       </c>
       <c r="D23" t="n">
-        <v>26.0</v>
+        <v>73.0</v>
       </c>
       <c r="E23" t="n">
-        <v>44.0</v>
+        <v>0.0</v>
       </c>
       <c r="F23" t="n">
-        <v>68.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="24">
@@ -815,19 +812,19 @@
         <v>29</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0</v>
+        <v>37.0</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="D24" t="n">
-        <v>26.0</v>
+        <v>78.0</v>
       </c>
       <c r="E24" t="n">
-        <v>38.0</v>
+        <v>0.0</v>
       </c>
       <c r="F24" t="n">
-        <v>87.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="25">
@@ -835,19 +832,19 @@
         <v>30</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0</v>
+        <v>35.0</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="D25" t="n">
-        <v>27.0</v>
+        <v>76.0</v>
       </c>
       <c r="E25" t="n">
-        <v>41.0</v>
+        <v>0.0</v>
       </c>
       <c r="F25" t="n">
-        <v>80.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
@@ -855,19 +852,19 @@
         <v>31</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0</v>
+        <v>36.0</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="D26" t="n">
-        <v>28.0</v>
+        <v>83.0</v>
       </c>
       <c r="E26" t="n">
-        <v>36.0</v>
+        <v>0.0</v>
       </c>
       <c r="F26" t="n">
-        <v>87.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
@@ -875,19 +872,19 @@
         <v>32</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="D27" t="n">
-        <v>22.0</v>
+        <v>75.0</v>
       </c>
       <c r="E27" t="n">
-        <v>34.0</v>
+        <v>0.0</v>
       </c>
       <c r="F27" t="n">
-        <v>79.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="28">
@@ -895,19 +892,19 @@
         <v>33</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="D28" t="n">
-        <v>27.0</v>
+        <v>80.0</v>
       </c>
       <c r="E28" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
       <c r="F28" t="n">
-        <v>84.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="29">
@@ -915,19 +912,19 @@
         <v>34</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="D29" t="n">
-        <v>26.0</v>
+        <v>69.0</v>
       </c>
       <c r="E29" t="n">
-        <v>37.0</v>
+        <v>0.0</v>
       </c>
       <c r="F29" t="n">
-        <v>73.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="30">
@@ -935,19 +932,19 @@
         <v>35</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0</v>
+        <v>44.0</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="D30" t="n">
-        <v>22.0</v>
+        <v>80.0</v>
       </c>
       <c r="E30" t="n">
-        <v>42.0</v>
+        <v>0.0</v>
       </c>
       <c r="F30" t="n">
-        <v>82.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="31">
@@ -955,19 +952,19 @@
         <v>36</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0</v>
+        <v>36.0</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="D31" t="n">
-        <v>25.0</v>
+        <v>100.0</v>
       </c>
       <c r="E31" t="n">
-        <v>36.0</v>
+        <v>0.0</v>
       </c>
       <c r="F31" t="n">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="32">
@@ -975,19 +972,19 @@
         <v>37</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0</v>
+        <v>37.0</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="D32" t="n">
-        <v>29.0</v>
+        <v>79.0</v>
       </c>
       <c r="E32" t="n">
-        <v>42.0</v>
+        <v>0.0</v>
       </c>
       <c r="F32" t="n">
-        <v>92.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="33">
@@ -995,19 +992,19 @@
         <v>38</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0</v>
+        <v>35.0</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="D33" t="n">
-        <v>26.0</v>
+        <v>80.0</v>
       </c>
       <c r="E33" t="n">
-        <v>36.0</v>
+        <v>0.0</v>
       </c>
       <c r="F33" t="n">
-        <v>88.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="34">
@@ -1015,19 +1012,19 @@
         <v>39</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0</v>
+        <v>41.0</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="D34" t="n">
-        <v>21.0</v>
+        <v>86.0</v>
       </c>
       <c r="E34" t="n">
-        <v>44.0</v>
+        <v>0.0</v>
       </c>
       <c r="F34" t="n">
-        <v>95.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="35">
@@ -1035,19 +1032,19 @@
         <v>40</v>
       </c>
       <c r="B35" t="n">
-        <v>1.0</v>
+        <v>29.0</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="D35" t="n">
-        <v>25.0</v>
+        <v>87.0</v>
       </c>
       <c r="E35" t="n">
-        <v>28.0</v>
+        <v>0.0</v>
       </c>
       <c r="F35" t="n">
-        <v>89.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="36">
@@ -1055,19 +1052,19 @@
         <v>41</v>
       </c>
       <c r="B36" t="n">
-        <v>1.0</v>
+        <v>28.0</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="D36" t="n">
-        <v>33.0</v>
+        <v>90.0</v>
       </c>
       <c r="E36" t="n">
-        <v>28.0</v>
+        <v>0.0</v>
       </c>
       <c r="F36" t="n">
-        <v>91.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="37">
@@ -1075,19 +1072,19 @@
         <v>42</v>
       </c>
       <c r="B37" t="n">
-        <v>1.0</v>
+        <v>43.0</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="D37" t="n">
-        <v>27.0</v>
+        <v>93.0</v>
       </c>
       <c r="E37" t="n">
-        <v>45.0</v>
+        <v>0.0</v>
       </c>
       <c r="F37" t="n">
-        <v>97.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="38">
@@ -1095,19 +1092,19 @@
         <v>43</v>
       </c>
       <c r="B38" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="E38" t="n">
         <v>1.0</v>
       </c>
-      <c r="C38" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>38.0</v>
-      </c>
       <c r="F38" t="n">
-        <v>94.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="39">
@@ -1115,19 +1112,19 @@
         <v>44</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0</v>
+        <v>38.0</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="D39" t="n">
-        <v>20.0</v>
+        <v>100.0</v>
       </c>
       <c r="E39" t="n">
-        <v>38.0</v>
+        <v>1.0</v>
       </c>
       <c r="F39" t="n">
-        <v>92.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="40">
@@ -1135,19 +1132,19 @@
         <v>45</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0</v>
+        <v>41.0</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0</v>
+        <v>21.0</v>
       </c>
       <c r="D40" t="n">
-        <v>22.0</v>
+        <v>85.0</v>
       </c>
       <c r="E40" t="n">
-        <v>43.0</v>
+        <v>1.0</v>
       </c>
       <c r="F40" t="n">
-        <v>85.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="41">
@@ -1155,19 +1152,19 @@
         <v>46</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0</v>
+        <v>38.0</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="D41" t="n">
-        <v>21.0</v>
+        <v>91.0</v>
       </c>
       <c r="E41" t="n">
-        <v>36.0</v>
+        <v>0.0</v>
       </c>
       <c r="F41" t="n">
-        <v>90.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="42">
@@ -1175,19 +1172,19 @@
         <v>47</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0</v>
+        <v>39.0</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0</v>
+        <v>36.0</v>
       </c>
       <c r="D42" t="n">
-        <v>30.0</v>
+        <v>82.0</v>
       </c>
       <c r="E42" t="n">
-        <v>31.0</v>
+        <v>0.0</v>
       </c>
       <c r="F42" t="n">
-        <v>77.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="43">
@@ -1195,19 +1192,19 @@
         <v>48</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0</v>
+        <v>40.0</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="D43" t="n">
-        <v>30.0</v>
+        <v>82.0</v>
       </c>
       <c r="E43" t="n">
-        <v>40.0</v>
+        <v>0.0</v>
       </c>
       <c r="F43" t="n">
-        <v>88.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="44">
@@ -1215,19 +1212,22 @@
         <v>49</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0</v>
+        <v>43.0</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="D44" t="n">
-        <v>24.0</v>
+        <v>96.0</v>
       </c>
       <c r="E44" t="n">
-        <v>43.0</v>
+        <v>0.0</v>
       </c>
       <c r="F44" t="n">
-        <v>92.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="45">
@@ -1235,19 +1235,19 @@
         <v>50</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0</v>
+        <v>46.0</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="D45" t="n">
-        <v>29.0</v>
+        <v>93.0</v>
       </c>
       <c r="E45" t="n">
-        <v>46.0</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="46">
@@ -1255,19 +1255,19 @@
         <v>51</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0</v>
+        <v>62.0</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="D46" t="n">
-        <v>25.0</v>
+        <v>93.0</v>
       </c>
       <c r="E46" t="n">
-        <v>57.0</v>
+        <v>0.0</v>
       </c>
       <c r="F46" t="n">
-        <v>87.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="47">
@@ -1275,19 +1275,19 @@
         <v>52</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0</v>
+        <v>49.0</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="D47" t="n">
-        <v>28.0</v>
+        <v>96.0</v>
       </c>
       <c r="E47" t="n">
-        <v>44.0</v>
+        <v>0.0</v>
       </c>
       <c r="F47" t="n">
-        <v>93.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="48">
@@ -1295,19 +1295,19 @@
         <v>53</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0</v>
+        <v>36.0</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="D48" t="n">
-        <v>24.0</v>
+        <v>87.0</v>
       </c>
       <c r="E48" t="n">
-        <v>40.0</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n">
-        <v>84.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="49">
@@ -1315,19 +1315,19 @@
         <v>54</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0</v>
+        <v>34.0</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="D49" t="n">
-        <v>28.0</v>
+        <v>81.0</v>
       </c>
       <c r="E49" t="n">
-        <v>34.0</v>
+        <v>0.0</v>
       </c>
       <c r="F49" t="n">
-        <v>81.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="50">
@@ -1335,19 +1335,19 @@
         <v>55</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0</v>
+        <v>35.0</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="D50" t="n">
-        <v>24.0</v>
+        <v>79.0</v>
       </c>
       <c r="E50" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
       <c r="F50" t="n">
-        <v>81.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="51">
@@ -1355,19 +1355,19 @@
         <v>56</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0</v>
+        <v>39.0</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="D51" t="n">
-        <v>29.0</v>
+        <v>92.0</v>
       </c>
       <c r="E51" t="n">
-        <v>46.0</v>
+        <v>0.0</v>
       </c>
       <c r="F51" t="n">
-        <v>93.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="52">
@@ -1375,19 +1375,19 @@
         <v>57</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0</v>
+        <v>54.0</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="D52" t="n">
-        <v>26.0</v>
+        <v>92.0</v>
       </c>
       <c r="E52" t="n">
-        <v>48.0</v>
+        <v>0.0</v>
       </c>
       <c r="F52" t="n">
-        <v>90.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="53">
@@ -1395,19 +1395,19 @@
         <v>58</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0</v>
+        <v>42.0</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="D53" t="n">
-        <v>26.0</v>
+        <v>92.0</v>
       </c>
       <c r="E53" t="n">
-        <v>40.0</v>
+        <v>0.0</v>
       </c>
       <c r="F53" t="n">
-        <v>92.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="54">
@@ -1415,19 +1415,19 @@
         <v>59</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0</v>
+        <v>44.0</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="D54" t="n">
-        <v>25.0</v>
+        <v>97.0</v>
       </c>
       <c r="E54" t="n">
-        <v>45.0</v>
+        <v>0.0</v>
       </c>
       <c r="F54" t="n">
-        <v>99.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="55">
@@ -1435,19 +1435,19 @@
         <v>60</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0</v>
+        <v>35.0</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="D55" t="n">
-        <v>25.0</v>
+        <v>89.0</v>
       </c>
       <c r="E55" t="n">
-        <v>32.0</v>
+        <v>0.0</v>
       </c>
       <c r="F55" t="n">
-        <v>90.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="56">
@@ -1455,19 +1455,19 @@
         <v>61</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="D56" t="n">
-        <v>28.0</v>
+        <v>82.0</v>
       </c>
       <c r="E56" t="n">
-        <v>31.0</v>
+        <v>0.0</v>
       </c>
       <c r="F56" t="n">
-        <v>87.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="57">
@@ -1475,19 +1475,19 @@
         <v>62</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="D57" t="n">
-        <v>29.0</v>
+        <v>80.0</v>
       </c>
       <c r="E57" t="n">
-        <v>33.0</v>
+        <v>0.0</v>
       </c>
       <c r="F57" t="n">
-        <v>85.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="58">
@@ -1495,19 +1495,19 @@
         <v>63</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0</v>
+        <v>37.0</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="D58" t="n">
-        <v>27.0</v>
+        <v>86.0</v>
       </c>
       <c r="E58" t="n">
-        <v>32.0</v>
+        <v>0.0</v>
       </c>
       <c r="F58" t="n">
-        <v>93.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="59">
@@ -1515,19 +1515,19 @@
         <v>64</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0</v>
+        <v>48.0</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="D59" t="n">
-        <v>24.0</v>
+        <v>98.0</v>
       </c>
       <c r="E59" t="n">
-        <v>47.0</v>
+        <v>0.0</v>
       </c>
       <c r="F59" t="n">
-        <v>92.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="60">
@@ -1535,19 +1535,19 @@
         <v>65</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="D60" t="n">
-        <v>25.0</v>
+        <v>90.0</v>
       </c>
       <c r="E60" t="n">
-        <v>45.0</v>
+        <v>0.0</v>
       </c>
       <c r="F60" t="n">
-        <v>83.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="61">
@@ -1555,19 +1555,19 @@
         <v>66</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0</v>
+        <v>55.0</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="D61" t="n">
-        <v>18.0</v>
+        <v>96.0</v>
       </c>
       <c r="E61" t="n">
-        <v>53.0</v>
+        <v>0.0</v>
       </c>
       <c r="F61" t="n">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="62">
@@ -1575,19 +1575,19 @@
         <v>67</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0</v>
+        <v>42.0</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="D62" t="n">
-        <v>26.0</v>
+        <v>93.0</v>
       </c>
       <c r="E62" t="n">
-        <v>41.0</v>
+        <v>0.0</v>
       </c>
       <c r="F62" t="n">
-        <v>89.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="63">
@@ -1595,19 +1595,19 @@
         <v>68</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="D63" t="n">
-        <v>29.0</v>
+        <v>86.0</v>
       </c>
       <c r="E63" t="n">
-        <v>32.0</v>
+        <v>0.0</v>
       </c>
       <c r="F63" t="n">
-        <v>73.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="64">
@@ -1615,19 +1615,19 @@
         <v>69</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="D64" t="n">
-        <v>27.0</v>
+        <v>89.0</v>
       </c>
       <c r="E64" t="n">
-        <v>38.0</v>
+        <v>0.0</v>
       </c>
       <c r="F64" t="n">
-        <v>85.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="65">
@@ -1635,19 +1635,19 @@
         <v>70</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0</v>
+        <v>38.0</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0</v>
+        <v>19.0</v>
       </c>
       <c r="D65" t="n">
-        <v>19.0</v>
+        <v>97.0</v>
       </c>
       <c r="E65" t="n">
-        <v>40.0</v>
+        <v>0.0</v>
       </c>
       <c r="F65" t="n">
-        <v>90.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="66">
@@ -1655,19 +1655,19 @@
         <v>71</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0</v>
+        <v>43.0</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="D66" t="n">
-        <v>27.0</v>
+        <v>100.0</v>
       </c>
       <c r="E66" t="n">
-        <v>42.0</v>
+        <v>0.0</v>
       </c>
       <c r="F66" t="n">
-        <v>93.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="67">
@@ -1675,19 +1675,19 @@
         <v>72</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0</v>
+        <v>40.0</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="D67" t="n">
-        <v>22.0</v>
+        <v>85.0</v>
       </c>
       <c r="E67" t="n">
-        <v>44.0</v>
+        <v>0.0</v>
       </c>
       <c r="F67" t="n">
-        <v>84.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="68">
@@ -1695,19 +1695,19 @@
         <v>73</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0</v>
+        <v>45.0</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="D68" t="n">
-        <v>19.0</v>
+        <v>90.0</v>
       </c>
       <c r="E68" t="n">
-        <v>43.0</v>
+        <v>0.0</v>
       </c>
       <c r="F68" t="n">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="69">
@@ -1715,19 +1715,19 @@
         <v>74</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0</v>
+        <v>45.0</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="D69" t="n">
-        <v>26.0</v>
+        <v>82.0</v>
       </c>
       <c r="E69" t="n">
-        <v>39.0</v>
+        <v>0.0</v>
       </c>
       <c r="F69" t="n">
-        <v>80.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="70">
@@ -1735,19 +1735,19 @@
         <v>75</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="D70" t="n">
-        <v>27.0</v>
+        <v>76.0</v>
       </c>
       <c r="E70" t="n">
-        <v>35.0</v>
+        <v>0.0</v>
       </c>
       <c r="F70" t="n">
-        <v>75.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="71">
@@ -1755,19 +1755,19 @@
         <v>76</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0</v>
+        <v>38.0</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="D71" t="n">
-        <v>33.0</v>
+        <v>90.0</v>
       </c>
       <c r="E71" t="n">
-        <v>33.0</v>
+        <v>0.0</v>
       </c>
       <c r="F71" t="n">
-        <v>88.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="72">
@@ -1775,19 +1775,19 @@
         <v>77</v>
       </c>
       <c r="B72" t="n">
-        <v>1.0</v>
+        <v>43.0</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="D72" t="n">
-        <v>21.0</v>
+        <v>96.0</v>
       </c>
       <c r="E72" t="n">
-        <v>42.0</v>
+        <v>0.0</v>
       </c>
       <c r="F72" t="n">
-        <v>87.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="73">
@@ -1795,19 +1795,19 @@
         <v>78</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0</v>
+        <v>46.0</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="D73" t="n">
-        <v>27.0</v>
+        <v>83.0</v>
       </c>
       <c r="E73" t="n">
-        <v>48.0</v>
+        <v>0.0</v>
       </c>
       <c r="F73" t="n">
-        <v>90.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="74">
@@ -1815,19 +1815,19 @@
         <v>79</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0</v>
+        <v>45.0</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="D74" t="n">
-        <v>20.0</v>
+        <v>86.0</v>
       </c>
       <c r="E74" t="n">
-        <v>42.0</v>
+        <v>0.0</v>
       </c>
       <c r="F74" t="n">
-        <v>93.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="75">
@@ -1835,19 +1835,19 @@
         <v>80</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0</v>
+        <v>47.0</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="D75" t="n">
-        <v>21.0</v>
+        <v>88.0</v>
       </c>
       <c r="E75" t="n">
-        <v>46.0</v>
+        <v>0.0</v>
       </c>
       <c r="F75" t="n">
-        <v>89.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="76">
@@ -1855,19 +1855,19 @@
         <v>81</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0</v>
+        <v>39.0</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="D76" t="n">
-        <v>24.0</v>
+        <v>93.0</v>
       </c>
       <c r="E76" t="n">
-        <v>35.0</v>
+        <v>0.0</v>
       </c>
       <c r="F76" t="n">
-        <v>75.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="77">
@@ -1875,19 +1875,19 @@
         <v>82</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="D77" t="n">
-        <v>27.0</v>
+        <v>90.0</v>
       </c>
       <c r="E77" t="n">
-        <v>26.0</v>
+        <v>0.0</v>
       </c>
       <c r="F77" t="n">
-        <v>81.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="78">
@@ -1895,19 +1895,19 @@
         <v>83</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0</v>
+        <v>35.0</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="D78" t="n">
-        <v>30.0</v>
+        <v>90.0</v>
       </c>
       <c r="E78" t="n">
-        <v>36.0</v>
+        <v>0.0</v>
       </c>
       <c r="F78" t="n">
-        <v>80.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="79">
@@ -1915,19 +1915,19 @@
         <v>84</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0</v>
+        <v>42.0</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="D79" t="n">
-        <v>25.0</v>
+        <v>91.0</v>
       </c>
       <c r="E79" t="n">
-        <v>42.0</v>
+        <v>0.0</v>
       </c>
       <c r="F79" t="n">
-        <v>96.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="80">
@@ -1935,19 +1935,19 @@
         <v>85</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0</v>
+        <v>42.0</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="D80" t="n">
-        <v>26.0</v>
+        <v>87.0</v>
       </c>
       <c r="E80" t="n">
-        <v>44.0</v>
+        <v>0.0</v>
       </c>
       <c r="F80" t="n">
-        <v>83.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="81">
@@ -1955,19 +1955,19 @@
         <v>86</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0</v>
+        <v>43.0</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="D81" t="n">
-        <v>20.0</v>
+        <v>95.0</v>
       </c>
       <c r="E81" t="n">
-        <v>41.0</v>
+        <v>0.0</v>
       </c>
       <c r="F81" t="n">
-        <v>95.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="82">
@@ -1975,19 +1975,19 @@
         <v>87</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0</v>
+        <v>42.0</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="D82" t="n">
-        <v>28.0</v>
+        <v>91.0</v>
       </c>
       <c r="E82" t="n">
-        <v>41.0</v>
+        <v>0.0</v>
       </c>
       <c r="F82" t="n">
-        <v>85.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="83">
@@ -1995,19 +1995,19 @@
         <v>88</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0</v>
+        <v>37.0</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="D83" t="n">
-        <v>21.0</v>
+        <v>83.0</v>
       </c>
       <c r="E83" t="n">
-        <v>39.0</v>
+        <v>0.0</v>
       </c>
       <c r="F83" t="n">
-        <v>84.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="84">
@@ -2015,19 +2015,19 @@
         <v>89</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="D84" t="n">
-        <v>25.0</v>
+        <v>85.0</v>
       </c>
       <c r="E84" t="n">
-        <v>36.0</v>
+        <v>0.0</v>
       </c>
       <c r="F84" t="n">
-        <v>77.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="85">
@@ -2035,22 +2035,22 @@
         <v>90</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0</v>
+        <v>40.0</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="D85" t="n">
-        <v>29.0</v>
+        <v>81.0</v>
       </c>
       <c r="E85" t="n">
-        <v>40.0</v>
+        <v>0.0</v>
       </c>
       <c r="F85" t="n">
-        <v>83.0</v>
+        <v>0.0</v>
       </c>
       <c r="G85" t="n">
-        <v>50.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="86">
@@ -2058,19 +2058,19 @@
         <v>91</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0</v>
+        <v>46.0</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0</v>
+        <v>21.0</v>
       </c>
       <c r="D86" t="n">
-        <v>22.0</v>
+        <v>82.0</v>
       </c>
       <c r="E86" t="n">
-        <v>45.0</v>
+        <v>0.0</v>
       </c>
       <c r="F86" t="n">
-        <v>86.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="87">
@@ -2078,19 +2078,19 @@
         <v>92</v>
       </c>
       <c r="B87" t="n">
-        <v>1.0</v>
+        <v>40.0</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="D87" t="n">
-        <v>23.0</v>
+        <v>78.0</v>
       </c>
       <c r="E87" t="n">
-        <v>43.0</v>
+        <v>0.0</v>
       </c>
       <c r="F87" t="n">
-        <v>80.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="88">
@@ -2098,19 +2098,19 @@
         <v>93</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0</v>
+        <v>42.0</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="D88" t="n">
-        <v>26.0</v>
+        <v>89.0</v>
       </c>
       <c r="E88" t="n">
-        <v>37.0</v>
+        <v>0.0</v>
       </c>
       <c r="F88" t="n">
-        <v>82.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="89">
@@ -2118,19 +2118,19 @@
         <v>94</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0</v>
+        <v>49.0</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0</v>
+        <v>34.0</v>
       </c>
       <c r="D89" t="n">
-        <v>28.0</v>
+        <v>93.0</v>
       </c>
       <c r="E89" t="n">
-        <v>45.0</v>
+        <v>0.0</v>
       </c>
       <c r="F89" t="n">
-        <v>90.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="90">
@@ -2138,19 +2138,19 @@
         <v>95</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="D90" t="n">
-        <v>27.0</v>
+        <v>86.0</v>
       </c>
       <c r="E90" t="n">
-        <v>49.0</v>
+        <v>0.0</v>
       </c>
       <c r="F90" t="n">
-        <v>82.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="91">
@@ -2158,19 +2158,19 @@
         <v>96</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0</v>
+        <v>34.0</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="D91" t="n">
-        <v>28.0</v>
+        <v>73.0</v>
       </c>
       <c r="E91" t="n">
-        <v>38.0</v>
+        <v>0.0</v>
       </c>
       <c r="F91" t="n">
-        <v>74.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="92">
@@ -2178,19 +2178,19 @@
         <v>97</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0</v>
+        <v>49.0</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="D92" t="n">
-        <v>26.0</v>
+        <v>70.0</v>
       </c>
       <c r="E92" t="n">
-        <v>44.0</v>
+        <v>0.0</v>
       </c>
       <c r="F92" t="n">
-        <v>72.0</v>
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>

--- a/TestWithBash/ExcelTest2.xlsx
+++ b/TestWithBash/ExcelTest2.xlsx
@@ -20,16 +20,16 @@
     <t>Datum</t>
   </si>
   <si>
-    <t>neumann(-0.596)</t>
-  </si>
-  <si>
-    <t>mikrofon(0.997)</t>
-  </si>
-  <si>
-    <t>nickel(-0.693)</t>
-  </si>
-  <si>
-    <t>k87(NaN)</t>
+    <t>neumann(0.167)</t>
+  </si>
+  <si>
+    <t>mikrofon(0.133)</t>
+  </si>
+  <si>
+    <t>nickel(0.002)</t>
+  </si>
+  <si>
+    <t>k87(-0.015)</t>
   </si>
   <si>
     <t>K87 Kapsel(NaN)</t>
@@ -389,13 +389,13 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="C3" t="n">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
       <c r="D3" t="n">
-        <v>62.0</v>
+        <v>68.0</v>
       </c>
       <c r="E3" t="n">
         <v>0.0</v>
@@ -409,13 +409,13 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>29.0</v>
+        <v>34.0</v>
       </c>
       <c r="C4" t="n">
-        <v>22.0</v>
+        <v>30.0</v>
       </c>
       <c r="D4" t="n">
-        <v>67.0</v>
+        <v>76.0</v>
       </c>
       <c r="E4" t="n">
         <v>0.0</v>
@@ -429,13 +429,13 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>36.0</v>
+        <v>39.0</v>
       </c>
       <c r="C5" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="D5" t="n">
-        <v>63.0</v>
+        <v>71.0</v>
       </c>
       <c r="E5" t="n">
         <v>0.0</v>
@@ -449,13 +449,13 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>31.0</v>
+        <v>33.0</v>
       </c>
       <c r="C6" t="n">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
       <c r="D6" t="n">
-        <v>71.0</v>
+        <v>76.0</v>
       </c>
       <c r="E6" t="n">
         <v>0.0</v>
@@ -469,13 +469,13 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>37.0</v>
+        <v>36.0</v>
       </c>
       <c r="C7" t="n">
-        <v>26.0</v>
+        <v>29.0</v>
       </c>
       <c r="D7" t="n">
-        <v>70.0</v>
+        <v>77.0</v>
       </c>
       <c r="E7" t="n">
         <v>0.0</v>
@@ -489,13 +489,13 @@
         <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
       <c r="C8" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="D8" t="n">
-        <v>66.0</v>
+        <v>79.0</v>
       </c>
       <c r="E8" t="n">
         <v>0.0</v>
@@ -509,13 +509,13 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>48.0</v>
+        <v>43.0</v>
       </c>
       <c r="C9" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="D9" t="n">
-        <v>80.0</v>
+        <v>81.0</v>
       </c>
       <c r="E9" t="n">
         <v>0.0</v>
@@ -529,13 +529,13 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>41.0</v>
+        <v>51.0</v>
       </c>
       <c r="C10" t="n">
-        <v>24.0</v>
+        <v>27.0</v>
       </c>
       <c r="D10" t="n">
-        <v>75.0</v>
+        <v>79.0</v>
       </c>
       <c r="E10" t="n">
         <v>0.0</v>
@@ -549,13 +549,13 @@
         <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>38.0</v>
+        <v>42.0</v>
       </c>
       <c r="C11" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="D11" t="n">
-        <v>75.0</v>
+        <v>80.0</v>
       </c>
       <c r="E11" t="n">
         <v>0.0</v>
@@ -564,7 +564,7 @@
         <v>0.0</v>
       </c>
       <c r="G11" t="n">
-        <v>50.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="12">
@@ -572,18 +572,21 @@
         <v>17</v>
       </c>
       <c r="B12" t="n">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="C12" t="n">
-        <v>22.0</v>
+        <v>29.0</v>
       </c>
       <c r="D12" t="n">
-        <v>65.0</v>
+        <v>76.0</v>
       </c>
       <c r="E12" t="n">
         <v>0.0</v>
       </c>
       <c r="F12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G12" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -592,18 +595,21 @@
         <v>18</v>
       </c>
       <c r="B13" t="n">
-        <v>32.0</v>
+        <v>39.0</v>
       </c>
       <c r="C13" t="n">
-        <v>22.0</v>
+        <v>27.0</v>
       </c>
       <c r="D13" t="n">
-        <v>67.0</v>
+        <v>77.0</v>
       </c>
       <c r="E13" t="n">
         <v>0.0</v>
       </c>
       <c r="F13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G13" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -612,18 +618,21 @@
         <v>19</v>
       </c>
       <c r="B14" t="n">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="C14" t="n">
-        <v>24.0</v>
+        <v>30.0</v>
       </c>
       <c r="D14" t="n">
-        <v>76.0</v>
+        <v>77.0</v>
       </c>
       <c r="E14" t="n">
         <v>0.0</v>
       </c>
       <c r="F14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G14" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -632,18 +641,21 @@
         <v>20</v>
       </c>
       <c r="B15" t="n">
-        <v>33.0</v>
+        <v>36.0</v>
       </c>
       <c r="C15" t="n">
-        <v>27.0</v>
+        <v>37.0</v>
       </c>
       <c r="D15" t="n">
-        <v>67.0</v>
+        <v>74.0</v>
       </c>
       <c r="E15" t="n">
         <v>0.0</v>
       </c>
       <c r="F15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G15" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -652,18 +664,21 @@
         <v>21</v>
       </c>
       <c r="B16" t="n">
-        <v>45.0</v>
+        <v>51.0</v>
       </c>
       <c r="C16" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="D16" t="n">
-        <v>65.0</v>
+        <v>78.0</v>
       </c>
       <c r="E16" t="n">
         <v>0.0</v>
       </c>
       <c r="F16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G16" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -672,18 +687,21 @@
         <v>22</v>
       </c>
       <c r="B17" t="n">
-        <v>39.0</v>
+        <v>44.0</v>
       </c>
       <c r="C17" t="n">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
       <c r="D17" t="n">
-        <v>69.0</v>
+        <v>76.0</v>
       </c>
       <c r="E17" t="n">
         <v>0.0</v>
       </c>
       <c r="F17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G17" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -692,18 +710,21 @@
         <v>23</v>
       </c>
       <c r="B18" t="n">
-        <v>33.0</v>
+        <v>39.0</v>
       </c>
       <c r="C18" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="D18" t="n">
-        <v>73.0</v>
+        <v>82.0</v>
       </c>
       <c r="E18" t="n">
         <v>0.0</v>
       </c>
       <c r="F18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G18" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -712,18 +733,21 @@
         <v>24</v>
       </c>
       <c r="B19" t="n">
-        <v>41.0</v>
+        <v>40.0</v>
       </c>
       <c r="C19" t="n">
-        <v>20.0</v>
+        <v>22.0</v>
       </c>
       <c r="D19" t="n">
-        <v>71.0</v>
+        <v>75.0</v>
       </c>
       <c r="E19" t="n">
         <v>0.0</v>
       </c>
       <c r="F19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G19" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -732,18 +756,21 @@
         <v>25</v>
       </c>
       <c r="B20" t="n">
-        <v>35.0</v>
+        <v>41.0</v>
       </c>
       <c r="C20" t="n">
-        <v>22.0</v>
+        <v>25.0</v>
       </c>
       <c r="D20" t="n">
-        <v>71.0</v>
+        <v>82.0</v>
       </c>
       <c r="E20" t="n">
         <v>0.0</v>
       </c>
       <c r="F20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G20" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -752,18 +779,21 @@
         <v>26</v>
       </c>
       <c r="B21" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="C21" t="n">
-        <v>23.0</v>
+        <v>29.0</v>
       </c>
       <c r="D21" t="n">
-        <v>66.0</v>
+        <v>73.0</v>
       </c>
       <c r="E21" t="n">
         <v>0.0</v>
       </c>
       <c r="F21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G21" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -772,18 +802,21 @@
         <v>27</v>
       </c>
       <c r="B22" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="C22" t="n">
-        <v>21.0</v>
+        <v>29.0</v>
       </c>
       <c r="D22" t="n">
-        <v>72.0</v>
+        <v>80.0</v>
       </c>
       <c r="E22" t="n">
         <v>0.0</v>
       </c>
       <c r="F22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G22" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -792,18 +825,21 @@
         <v>28</v>
       </c>
       <c r="B23" t="n">
-        <v>32.0</v>
+        <v>44.0</v>
       </c>
       <c r="C23" t="n">
         <v>21.0</v>
       </c>
       <c r="D23" t="n">
-        <v>73.0</v>
+        <v>80.0</v>
       </c>
       <c r="E23" t="n">
         <v>0.0</v>
       </c>
       <c r="F23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G23" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -812,18 +848,21 @@
         <v>29</v>
       </c>
       <c r="B24" t="n">
-        <v>37.0</v>
+        <v>39.0</v>
       </c>
       <c r="C24" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="D24" t="n">
-        <v>78.0</v>
+        <v>95.0</v>
       </c>
       <c r="E24" t="n">
         <v>0.0</v>
       </c>
       <c r="F24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G24" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -832,18 +871,21 @@
         <v>30</v>
       </c>
       <c r="B25" t="n">
-        <v>35.0</v>
+        <v>39.0</v>
       </c>
       <c r="C25" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="D25" t="n">
-        <v>76.0</v>
+        <v>89.0</v>
       </c>
       <c r="E25" t="n">
         <v>0.0</v>
       </c>
       <c r="F25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -852,18 +894,21 @@
         <v>31</v>
       </c>
       <c r="B26" t="n">
-        <v>36.0</v>
+        <v>39.0</v>
       </c>
       <c r="C26" t="n">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
       <c r="D26" t="n">
-        <v>83.0</v>
+        <v>95.0</v>
       </c>
       <c r="E26" t="n">
         <v>0.0</v>
       </c>
       <c r="F26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G26" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -872,18 +917,21 @@
         <v>32</v>
       </c>
       <c r="B27" t="n">
-        <v>30.0</v>
+        <v>33.0</v>
       </c>
       <c r="C27" t="n">
-        <v>20.0</v>
+        <v>28.0</v>
       </c>
       <c r="D27" t="n">
-        <v>75.0</v>
+        <v>86.0</v>
       </c>
       <c r="E27" t="n">
         <v>0.0</v>
       </c>
       <c r="F27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G27" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -892,18 +940,21 @@
         <v>33</v>
       </c>
       <c r="B28" t="n">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
       <c r="C28" t="n">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
       <c r="D28" t="n">
-        <v>80.0</v>
+        <v>89.0</v>
       </c>
       <c r="E28" t="n">
         <v>0.0</v>
       </c>
       <c r="F28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G28" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -912,18 +963,21 @@
         <v>34</v>
       </c>
       <c r="B29" t="n">
-        <v>31.0</v>
+        <v>35.0</v>
       </c>
       <c r="C29" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="D29" t="n">
-        <v>69.0</v>
+        <v>82.0</v>
       </c>
       <c r="E29" t="n">
         <v>0.0</v>
       </c>
       <c r="F29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G29" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -932,18 +986,21 @@
         <v>35</v>
       </c>
       <c r="B30" t="n">
-        <v>44.0</v>
+        <v>43.0</v>
       </c>
       <c r="C30" t="n">
-        <v>18.0</v>
+        <v>22.0</v>
       </c>
       <c r="D30" t="n">
-        <v>80.0</v>
+        <v>82.0</v>
       </c>
       <c r="E30" t="n">
         <v>0.0</v>
       </c>
       <c r="F30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G30" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -952,10 +1009,10 @@
         <v>36</v>
       </c>
       <c r="B31" t="n">
-        <v>36.0</v>
+        <v>34.0</v>
       </c>
       <c r="C31" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="D31" t="n">
         <v>100.0</v>
@@ -964,6 +1021,9 @@
         <v>0.0</v>
       </c>
       <c r="F31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G31" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -972,18 +1032,21 @@
         <v>37</v>
       </c>
       <c r="B32" t="n">
-        <v>37.0</v>
+        <v>43.0</v>
       </c>
       <c r="C32" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="D32" t="n">
-        <v>79.0</v>
+        <v>95.0</v>
       </c>
       <c r="E32" t="n">
         <v>0.0</v>
       </c>
       <c r="F32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G32" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -992,18 +1055,21 @@
         <v>38</v>
       </c>
       <c r="B33" t="n">
-        <v>35.0</v>
+        <v>46.0</v>
       </c>
       <c r="C33" t="n">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
       <c r="D33" t="n">
-        <v>80.0</v>
+        <v>89.0</v>
       </c>
       <c r="E33" t="n">
         <v>0.0</v>
       </c>
       <c r="F33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G33" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1012,18 +1078,21 @@
         <v>39</v>
       </c>
       <c r="B34" t="n">
-        <v>41.0</v>
+        <v>45.0</v>
       </c>
       <c r="C34" t="n">
-        <v>25.0</v>
+        <v>22.0</v>
       </c>
       <c r="D34" t="n">
-        <v>86.0</v>
+        <v>91.0</v>
       </c>
       <c r="E34" t="n">
         <v>0.0</v>
       </c>
       <c r="F34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G34" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1032,18 +1101,21 @@
         <v>40</v>
       </c>
       <c r="B35" t="n">
-        <v>29.0</v>
+        <v>27.0</v>
       </c>
       <c r="C35" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="D35" t="n">
-        <v>87.0</v>
+        <v>77.0</v>
       </c>
       <c r="E35" t="n">
         <v>0.0</v>
       </c>
       <c r="F35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G35" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1052,18 +1124,21 @@
         <v>41</v>
       </c>
       <c r="B36" t="n">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
       <c r="C36" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="D36" t="n">
-        <v>90.0</v>
+        <v>83.0</v>
       </c>
       <c r="E36" t="n">
         <v>0.0</v>
       </c>
       <c r="F36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G36" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1072,18 +1147,21 @@
         <v>42</v>
       </c>
       <c r="B37" t="n">
-        <v>43.0</v>
+        <v>35.0</v>
       </c>
       <c r="C37" t="n">
-        <v>31.0</v>
+        <v>26.0</v>
       </c>
       <c r="D37" t="n">
-        <v>93.0</v>
+        <v>88.0</v>
       </c>
       <c r="E37" t="n">
         <v>0.0</v>
       </c>
       <c r="F37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G37" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1092,18 +1170,21 @@
         <v>43</v>
       </c>
       <c r="B38" t="n">
-        <v>40.0</v>
+        <v>37.0</v>
       </c>
       <c r="C38" t="n">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
       <c r="D38" t="n">
-        <v>94.0</v>
+        <v>91.0</v>
       </c>
       <c r="E38" t="n">
         <v>1.0</v>
       </c>
       <c r="F38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G38" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1112,18 +1193,21 @@
         <v>44</v>
       </c>
       <c r="B39" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="C39" t="n">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
       <c r="D39" t="n">
-        <v>100.0</v>
+        <v>90.0</v>
       </c>
       <c r="E39" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G39" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1135,15 +1219,18 @@
         <v>41.0</v>
       </c>
       <c r="C40" t="n">
-        <v>21.0</v>
+        <v>25.0</v>
       </c>
       <c r="D40" t="n">
-        <v>85.0</v>
+        <v>86.0</v>
       </c>
       <c r="E40" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G40" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1152,18 +1239,21 @@
         <v>46</v>
       </c>
       <c r="B41" t="n">
-        <v>38.0</v>
+        <v>34.0</v>
       </c>
       <c r="C41" t="n">
-        <v>22.0</v>
+        <v>27.0</v>
       </c>
       <c r="D41" t="n">
-        <v>91.0</v>
+        <v>90.0</v>
       </c>
       <c r="E41" t="n">
         <v>0.0</v>
       </c>
       <c r="F41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G41" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1172,10 +1262,10 @@
         <v>47</v>
       </c>
       <c r="B42" t="n">
-        <v>39.0</v>
+        <v>32.0</v>
       </c>
       <c r="C42" t="n">
-        <v>36.0</v>
+        <v>31.0</v>
       </c>
       <c r="D42" t="n">
         <v>82.0</v>
@@ -1184,6 +1274,9 @@
         <v>0.0</v>
       </c>
       <c r="F42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G42" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1192,18 +1285,21 @@
         <v>48</v>
       </c>
       <c r="B43" t="n">
-        <v>40.0</v>
+        <v>29.0</v>
       </c>
       <c r="C43" t="n">
         <v>27.0</v>
       </c>
       <c r="D43" t="n">
-        <v>82.0</v>
+        <v>84.0</v>
       </c>
       <c r="E43" t="n">
         <v>0.0</v>
       </c>
       <c r="F43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G43" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1212,13 +1308,13 @@
         <v>49</v>
       </c>
       <c r="B44" t="n">
-        <v>43.0</v>
+        <v>40.0</v>
       </c>
       <c r="C44" t="n">
-        <v>23.0</v>
+        <v>21.0</v>
       </c>
       <c r="D44" t="n">
-        <v>96.0</v>
+        <v>83.0</v>
       </c>
       <c r="E44" t="n">
         <v>0.0</v>
@@ -1227,7 +1323,7 @@
         <v>0.0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0</v>
+        <v>-1.0</v>
       </c>
     </row>
     <row r="45">
@@ -1235,18 +1331,21 @@
         <v>50</v>
       </c>
       <c r="B45" t="n">
-        <v>46.0</v>
+        <v>45.0</v>
       </c>
       <c r="C45" t="n">
-        <v>29.0</v>
+        <v>23.0</v>
       </c>
       <c r="D45" t="n">
-        <v>93.0</v>
+        <v>100.0</v>
       </c>
       <c r="E45" t="n">
         <v>0.0</v>
       </c>
       <c r="F45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G45" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1255,18 +1354,21 @@
         <v>51</v>
       </c>
       <c r="B46" t="n">
-        <v>62.0</v>
+        <v>59.0</v>
       </c>
       <c r="C46" t="n">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
       <c r="D46" t="n">
-        <v>93.0</v>
+        <v>86.0</v>
       </c>
       <c r="E46" t="n">
         <v>0.0</v>
       </c>
       <c r="F46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G46" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1275,18 +1377,21 @@
         <v>52</v>
       </c>
       <c r="B47" t="n">
-        <v>49.0</v>
+        <v>39.0</v>
       </c>
       <c r="C47" t="n">
-        <v>23.0</v>
+        <v>26.0</v>
       </c>
       <c r="D47" t="n">
-        <v>96.0</v>
+        <v>82.0</v>
       </c>
       <c r="E47" t="n">
         <v>0.0</v>
       </c>
       <c r="F47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G47" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1295,18 +1400,21 @@
         <v>53</v>
       </c>
       <c r="B48" t="n">
-        <v>36.0</v>
+        <v>32.0</v>
       </c>
       <c r="C48" t="n">
-        <v>25.0</v>
+        <v>21.0</v>
       </c>
       <c r="D48" t="n">
-        <v>87.0</v>
+        <v>78.0</v>
       </c>
       <c r="E48" t="n">
         <v>0.0</v>
       </c>
       <c r="F48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G48" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1321,12 +1429,15 @@
         <v>30.0</v>
       </c>
       <c r="D49" t="n">
-        <v>81.0</v>
+        <v>79.0</v>
       </c>
       <c r="E49" t="n">
         <v>0.0</v>
       </c>
       <c r="F49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G49" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1335,18 +1446,21 @@
         <v>55</v>
       </c>
       <c r="B50" t="n">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="C50" t="n">
-        <v>26.0</v>
+        <v>22.0</v>
       </c>
       <c r="D50" t="n">
-        <v>79.0</v>
+        <v>72.0</v>
       </c>
       <c r="E50" t="n">
         <v>0.0</v>
       </c>
       <c r="F50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G50" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1355,18 +1469,21 @@
         <v>56</v>
       </c>
       <c r="B51" t="n">
-        <v>39.0</v>
+        <v>45.0</v>
       </c>
       <c r="C51" t="n">
-        <v>28.0</v>
+        <v>25.0</v>
       </c>
       <c r="D51" t="n">
-        <v>92.0</v>
+        <v>91.0</v>
       </c>
       <c r="E51" t="n">
         <v>0.0</v>
       </c>
       <c r="F51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G51" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1375,10 +1492,10 @@
         <v>57</v>
       </c>
       <c r="B52" t="n">
-        <v>54.0</v>
+        <v>42.0</v>
       </c>
       <c r="C52" t="n">
-        <v>31.0</v>
+        <v>24.0</v>
       </c>
       <c r="D52" t="n">
         <v>92.0</v>
@@ -1387,6 +1504,9 @@
         <v>0.0</v>
       </c>
       <c r="F52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G52" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1395,18 +1515,21 @@
         <v>58</v>
       </c>
       <c r="B53" t="n">
-        <v>42.0</v>
+        <v>38.0</v>
       </c>
       <c r="C53" t="n">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
       <c r="D53" t="n">
-        <v>92.0</v>
+        <v>86.0</v>
       </c>
       <c r="E53" t="n">
         <v>0.0</v>
       </c>
       <c r="F53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G53" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1415,18 +1538,21 @@
         <v>59</v>
       </c>
       <c r="B54" t="n">
-        <v>44.0</v>
+        <v>39.0</v>
       </c>
       <c r="C54" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="D54" t="n">
-        <v>97.0</v>
+        <v>94.0</v>
       </c>
       <c r="E54" t="n">
         <v>0.0</v>
       </c>
       <c r="F54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G54" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1435,10 +1561,10 @@
         <v>60</v>
       </c>
       <c r="B55" t="n">
-        <v>35.0</v>
+        <v>34.0</v>
       </c>
       <c r="C55" t="n">
-        <v>27.0</v>
+        <v>22.0</v>
       </c>
       <c r="D55" t="n">
         <v>89.0</v>
@@ -1447,6 +1573,9 @@
         <v>0.0</v>
       </c>
       <c r="F55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G55" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1455,18 +1584,21 @@
         <v>61</v>
       </c>
       <c r="B56" t="n">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
       <c r="C56" t="n">
-        <v>30.0</v>
+        <v>24.0</v>
       </c>
       <c r="D56" t="n">
-        <v>82.0</v>
+        <v>87.0</v>
       </c>
       <c r="E56" t="n">
         <v>0.0</v>
       </c>
       <c r="F56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G56" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1475,18 +1607,21 @@
         <v>62</v>
       </c>
       <c r="B57" t="n">
-        <v>33.0</v>
+        <v>31.0</v>
       </c>
       <c r="C57" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="D57" t="n">
-        <v>80.0</v>
+        <v>79.0</v>
       </c>
       <c r="E57" t="n">
         <v>0.0</v>
       </c>
       <c r="F57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G57" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1495,18 +1630,21 @@
         <v>63</v>
       </c>
       <c r="B58" t="n">
-        <v>37.0</v>
+        <v>35.0</v>
       </c>
       <c r="C58" t="n">
-        <v>26.0</v>
+        <v>20.0</v>
       </c>
       <c r="D58" t="n">
-        <v>86.0</v>
+        <v>80.0</v>
       </c>
       <c r="E58" t="n">
         <v>0.0</v>
       </c>
       <c r="F58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G58" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1515,18 +1653,21 @@
         <v>64</v>
       </c>
       <c r="B59" t="n">
-        <v>48.0</v>
+        <v>36.0</v>
       </c>
       <c r="C59" t="n">
-        <v>27.0</v>
+        <v>22.0</v>
       </c>
       <c r="D59" t="n">
-        <v>98.0</v>
+        <v>81.0</v>
       </c>
       <c r="E59" t="n">
         <v>0.0</v>
       </c>
       <c r="F59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G59" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1535,18 +1676,21 @@
         <v>65</v>
       </c>
       <c r="B60" t="n">
-        <v>50.0</v>
+        <v>43.0</v>
       </c>
       <c r="C60" t="n">
-        <v>26.0</v>
+        <v>21.0</v>
       </c>
       <c r="D60" t="n">
-        <v>90.0</v>
+        <v>82.0</v>
       </c>
       <c r="E60" t="n">
         <v>0.0</v>
       </c>
       <c r="F60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G60" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1555,18 +1699,21 @@
         <v>66</v>
       </c>
       <c r="B61" t="n">
-        <v>55.0</v>
+        <v>48.0</v>
       </c>
       <c r="C61" t="n">
-        <v>27.0</v>
+        <v>20.0</v>
       </c>
       <c r="D61" t="n">
-        <v>96.0</v>
+        <v>86.0</v>
       </c>
       <c r="E61" t="n">
         <v>0.0</v>
       </c>
       <c r="F61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G61" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1575,18 +1722,21 @@
         <v>67</v>
       </c>
       <c r="B62" t="n">
-        <v>42.0</v>
+        <v>45.0</v>
       </c>
       <c r="C62" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="D62" t="n">
-        <v>93.0</v>
+        <v>86.0</v>
       </c>
       <c r="E62" t="n">
         <v>0.0</v>
       </c>
       <c r="F62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G62" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1595,18 +1745,21 @@
         <v>68</v>
       </c>
       <c r="B63" t="n">
-        <v>31.0</v>
+        <v>34.0</v>
       </c>
       <c r="C63" t="n">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
       <c r="D63" t="n">
-        <v>86.0</v>
+        <v>75.0</v>
       </c>
       <c r="E63" t="n">
         <v>0.0</v>
       </c>
       <c r="F63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G63" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1618,15 +1771,18 @@
         <v>33.0</v>
       </c>
       <c r="C64" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="D64" t="n">
-        <v>89.0</v>
+        <v>81.0</v>
       </c>
       <c r="E64" t="n">
         <v>0.0</v>
       </c>
       <c r="F64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G64" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1635,18 +1791,21 @@
         <v>70</v>
       </c>
       <c r="B65" t="n">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="C65" t="n">
-        <v>19.0</v>
+        <v>22.0</v>
       </c>
       <c r="D65" t="n">
-        <v>97.0</v>
+        <v>86.0</v>
       </c>
       <c r="E65" t="n">
         <v>0.0</v>
       </c>
       <c r="F65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G65" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1655,18 +1814,21 @@
         <v>71</v>
       </c>
       <c r="B66" t="n">
-        <v>43.0</v>
+        <v>44.0</v>
       </c>
       <c r="C66" t="n">
-        <v>23.0</v>
+        <v>26.0</v>
       </c>
       <c r="D66" t="n">
-        <v>100.0</v>
+        <v>96.0</v>
       </c>
       <c r="E66" t="n">
         <v>0.0</v>
       </c>
       <c r="F66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G66" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1678,15 +1840,18 @@
         <v>40.0</v>
       </c>
       <c r="C67" t="n">
-        <v>22.0</v>
+        <v>26.0</v>
       </c>
       <c r="D67" t="n">
-        <v>85.0</v>
+        <v>86.0</v>
       </c>
       <c r="E67" t="n">
         <v>0.0</v>
       </c>
       <c r="F67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G67" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1695,18 +1860,21 @@
         <v>73</v>
       </c>
       <c r="B68" t="n">
-        <v>45.0</v>
+        <v>42.0</v>
       </c>
       <c r="C68" t="n">
         <v>22.0</v>
       </c>
       <c r="D68" t="n">
-        <v>90.0</v>
+        <v>100.0</v>
       </c>
       <c r="E68" t="n">
         <v>0.0</v>
       </c>
       <c r="F68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G68" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1715,18 +1883,21 @@
         <v>74</v>
       </c>
       <c r="B69" t="n">
-        <v>45.0</v>
+        <v>42.0</v>
       </c>
       <c r="C69" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="D69" t="n">
-        <v>82.0</v>
+        <v>88.0</v>
       </c>
       <c r="E69" t="n">
         <v>0.0</v>
       </c>
       <c r="F69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G69" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1738,15 +1909,18 @@
         <v>32.0</v>
       </c>
       <c r="C70" t="n">
-        <v>25.0</v>
+        <v>28.0</v>
       </c>
       <c r="D70" t="n">
-        <v>76.0</v>
+        <v>78.0</v>
       </c>
       <c r="E70" t="n">
         <v>0.0</v>
       </c>
       <c r="F70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G70" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1755,18 +1929,21 @@
         <v>76</v>
       </c>
       <c r="B71" t="n">
-        <v>38.0</v>
+        <v>37.0</v>
       </c>
       <c r="C71" t="n">
-        <v>31.0</v>
+        <v>30.0</v>
       </c>
       <c r="D71" t="n">
-        <v>90.0</v>
+        <v>92.0</v>
       </c>
       <c r="E71" t="n">
         <v>0.0</v>
       </c>
       <c r="F71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G71" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1775,18 +1952,21 @@
         <v>77</v>
       </c>
       <c r="B72" t="n">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="C72" t="n">
         <v>25.0</v>
       </c>
       <c r="D72" t="n">
-        <v>96.0</v>
+        <v>93.0</v>
       </c>
       <c r="E72" t="n">
         <v>0.0</v>
       </c>
       <c r="F72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G72" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1795,18 +1975,21 @@
         <v>78</v>
       </c>
       <c r="B73" t="n">
-        <v>46.0</v>
+        <v>50.0</v>
       </c>
       <c r="C73" t="n">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
       <c r="D73" t="n">
-        <v>83.0</v>
+        <v>88.0</v>
       </c>
       <c r="E73" t="n">
         <v>0.0</v>
       </c>
       <c r="F73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G73" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1815,18 +1998,21 @@
         <v>79</v>
       </c>
       <c r="B74" t="n">
-        <v>45.0</v>
+        <v>48.0</v>
       </c>
       <c r="C74" t="n">
         <v>24.0</v>
       </c>
       <c r="D74" t="n">
-        <v>86.0</v>
+        <v>92.0</v>
       </c>
       <c r="E74" t="n">
         <v>0.0</v>
       </c>
       <c r="F74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G74" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1835,18 +2021,21 @@
         <v>80</v>
       </c>
       <c r="B75" t="n">
-        <v>47.0</v>
+        <v>45.0</v>
       </c>
       <c r="C75" t="n">
-        <v>23.0</v>
+        <v>21.0</v>
       </c>
       <c r="D75" t="n">
-        <v>88.0</v>
+        <v>91.0</v>
       </c>
       <c r="E75" t="n">
         <v>0.0</v>
       </c>
       <c r="F75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G75" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1855,18 +2044,21 @@
         <v>81</v>
       </c>
       <c r="B76" t="n">
-        <v>39.0</v>
+        <v>38.0</v>
       </c>
       <c r="C76" t="n">
         <v>30.0</v>
       </c>
       <c r="D76" t="n">
-        <v>93.0</v>
+        <v>84.0</v>
       </c>
       <c r="E76" t="n">
         <v>0.0</v>
       </c>
       <c r="F76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G76" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1881,12 +2073,15 @@
         <v>26.0</v>
       </c>
       <c r="D77" t="n">
-        <v>90.0</v>
+        <v>81.0</v>
       </c>
       <c r="E77" t="n">
         <v>0.0</v>
       </c>
       <c r="F77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G77" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1895,18 +2090,21 @@
         <v>83</v>
       </c>
       <c r="B78" t="n">
-        <v>35.0</v>
+        <v>43.0</v>
       </c>
       <c r="C78" t="n">
         <v>29.0</v>
       </c>
       <c r="D78" t="n">
-        <v>90.0</v>
+        <v>88.0</v>
       </c>
       <c r="E78" t="n">
         <v>0.0</v>
       </c>
       <c r="F78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G78" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1915,18 +2113,21 @@
         <v>84</v>
       </c>
       <c r="B79" t="n">
-        <v>42.0</v>
+        <v>47.0</v>
       </c>
       <c r="C79" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="D79" t="n">
-        <v>91.0</v>
+        <v>89.0</v>
       </c>
       <c r="E79" t="n">
         <v>0.0</v>
       </c>
       <c r="F79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G79" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1935,18 +2136,21 @@
         <v>85</v>
       </c>
       <c r="B80" t="n">
-        <v>42.0</v>
+        <v>50.0</v>
       </c>
       <c r="C80" t="n">
-        <v>26.0</v>
+        <v>29.0</v>
       </c>
       <c r="D80" t="n">
-        <v>87.0</v>
+        <v>82.0</v>
       </c>
       <c r="E80" t="n">
         <v>0.0</v>
       </c>
       <c r="F80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G80" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1955,18 +2159,21 @@
         <v>86</v>
       </c>
       <c r="B81" t="n">
-        <v>43.0</v>
+        <v>44.0</v>
       </c>
       <c r="C81" t="n">
-        <v>22.0</v>
+        <v>20.0</v>
       </c>
       <c r="D81" t="n">
-        <v>95.0</v>
+        <v>91.0</v>
       </c>
       <c r="E81" t="n">
         <v>0.0</v>
       </c>
       <c r="F81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G81" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1975,18 +2182,21 @@
         <v>87</v>
       </c>
       <c r="B82" t="n">
-        <v>42.0</v>
+        <v>38.0</v>
       </c>
       <c r="C82" t="n">
         <v>26.0</v>
       </c>
       <c r="D82" t="n">
-        <v>91.0</v>
+        <v>87.0</v>
       </c>
       <c r="E82" t="n">
         <v>0.0</v>
       </c>
       <c r="F82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G82" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1995,18 +2205,21 @@
         <v>88</v>
       </c>
       <c r="B83" t="n">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
       <c r="C83" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="D83" t="n">
-        <v>83.0</v>
+        <v>84.0</v>
       </c>
       <c r="E83" t="n">
         <v>0.0</v>
       </c>
       <c r="F83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G83" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -2015,18 +2228,21 @@
         <v>89</v>
       </c>
       <c r="B84" t="n">
-        <v>31.0</v>
+        <v>34.0</v>
       </c>
       <c r="C84" t="n">
-        <v>29.0</v>
+        <v>25.0</v>
       </c>
       <c r="D84" t="n">
-        <v>85.0</v>
+        <v>86.0</v>
       </c>
       <c r="E84" t="n">
         <v>0.0</v>
       </c>
       <c r="F84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G84" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -2035,13 +2251,13 @@
         <v>90</v>
       </c>
       <c r="B85" t="n">
-        <v>40.0</v>
+        <v>48.0</v>
       </c>
       <c r="C85" t="n">
-        <v>30.0</v>
+        <v>28.0</v>
       </c>
       <c r="D85" t="n">
-        <v>81.0</v>
+        <v>87.0</v>
       </c>
       <c r="E85" t="n">
         <v>0.0</v>
@@ -2050,7 +2266,7 @@
         <v>0.0</v>
       </c>
       <c r="G85" t="n">
-        <v>100.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="86">
@@ -2058,13 +2274,13 @@
         <v>91</v>
       </c>
       <c r="B86" t="n">
-        <v>46.0</v>
+        <v>45.0</v>
       </c>
       <c r="C86" t="n">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
       <c r="D86" t="n">
-        <v>82.0</v>
+        <v>89.0</v>
       </c>
       <c r="E86" t="n">
         <v>0.0</v>
@@ -2078,13 +2294,13 @@
         <v>92</v>
       </c>
       <c r="B87" t="n">
-        <v>40.0</v>
+        <v>41.0</v>
       </c>
       <c r="C87" t="n">
-        <v>27.0</v>
+        <v>21.0</v>
       </c>
       <c r="D87" t="n">
-        <v>78.0</v>
+        <v>84.0</v>
       </c>
       <c r="E87" t="n">
         <v>0.0</v>
@@ -2101,10 +2317,10 @@
         <v>42.0</v>
       </c>
       <c r="C88" t="n">
-        <v>26.0</v>
+        <v>30.0</v>
       </c>
       <c r="D88" t="n">
-        <v>89.0</v>
+        <v>92.0</v>
       </c>
       <c r="E88" t="n">
         <v>0.0</v>
@@ -2118,13 +2334,13 @@
         <v>94</v>
       </c>
       <c r="B89" t="n">
-        <v>49.0</v>
+        <v>46.0</v>
       </c>
       <c r="C89" t="n">
-        <v>34.0</v>
+        <v>26.0</v>
       </c>
       <c r="D89" t="n">
-        <v>93.0</v>
+        <v>92.0</v>
       </c>
       <c r="E89" t="n">
         <v>0.0</v>
@@ -2138,13 +2354,13 @@
         <v>95</v>
       </c>
       <c r="B90" t="n">
-        <v>50.0</v>
+        <v>52.0</v>
       </c>
       <c r="C90" t="n">
-        <v>23.0</v>
+        <v>28.0</v>
       </c>
       <c r="D90" t="n">
-        <v>86.0</v>
+        <v>83.0</v>
       </c>
       <c r="E90" t="n">
         <v>0.0</v>
@@ -2158,13 +2374,13 @@
         <v>96</v>
       </c>
       <c r="B91" t="n">
-        <v>34.0</v>
+        <v>41.0</v>
       </c>
       <c r="C91" t="n">
-        <v>28.0</v>
+        <v>26.0</v>
       </c>
       <c r="D91" t="n">
-        <v>73.0</v>
+        <v>77.0</v>
       </c>
       <c r="E91" t="n">
         <v>0.0</v>
@@ -2178,13 +2394,13 @@
         <v>97</v>
       </c>
       <c r="B92" t="n">
-        <v>49.0</v>
+        <v>41.0</v>
       </c>
       <c r="C92" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="D92" t="n">
-        <v>70.0</v>
+        <v>76.0</v>
       </c>
       <c r="E92" t="n">
         <v>0.0</v>

--- a/TestWithBash/ExcelTest2.xlsx
+++ b/TestWithBash/ExcelTest2.xlsx
@@ -12,21 +12,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
-  <si>
-    <t xml:space="preserve">Ergebnis: </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+  <si>
+    <t>Ergebnis vom 13.02.2017 14.23.37 mit dem Datensatz Neumann TLM-103(2)und dem ProduktTLM 103</t>
   </si>
   <si>
     <t>Datum</t>
   </si>
   <si>
-    <t>neumann(0.167)</t>
-  </si>
-  <si>
-    <t>mikrofon(0.133)</t>
-  </si>
-  <si>
-    <t>nickel(0.002)</t>
+    <t>neumann(0.087)</t>
+  </si>
+  <si>
+    <t>mikrofon(0.128)</t>
+  </si>
+  <si>
+    <t>nickel(0.094)</t>
   </si>
   <si>
     <t>k87(-0.015)</t>
@@ -35,7 +35,7 @@
     <t>K87 Kapsel(NaN)</t>
   </si>
   <si>
-    <t>Produkt</t>
+    <t>Produkt: TLM 103</t>
   </si>
   <si>
     <t>1.1.2013</t>
@@ -306,6 +306,96 @@
   </si>
   <si>
     <t>31.3.2013</t>
+  </si>
+  <si>
+    <t>1.4.2013</t>
+  </si>
+  <si>
+    <t>2.4.2013</t>
+  </si>
+  <si>
+    <t>3.4.2013</t>
+  </si>
+  <si>
+    <t>4.4.2013</t>
+  </si>
+  <si>
+    <t>5.4.2013</t>
+  </si>
+  <si>
+    <t>6.4.2013</t>
+  </si>
+  <si>
+    <t>7.4.2013</t>
+  </si>
+  <si>
+    <t>8.4.2013</t>
+  </si>
+  <si>
+    <t>9.4.2013</t>
+  </si>
+  <si>
+    <t>10.4.2013</t>
+  </si>
+  <si>
+    <t>11.4.2013</t>
+  </si>
+  <si>
+    <t>12.4.2013</t>
+  </si>
+  <si>
+    <t>13.4.2013</t>
+  </si>
+  <si>
+    <t>14.4.2013</t>
+  </si>
+  <si>
+    <t>15.4.2013</t>
+  </si>
+  <si>
+    <t>16.4.2013</t>
+  </si>
+  <si>
+    <t>17.4.2013</t>
+  </si>
+  <si>
+    <t>18.4.2013</t>
+  </si>
+  <si>
+    <t>19.4.2013</t>
+  </si>
+  <si>
+    <t>20.4.2013</t>
+  </si>
+  <si>
+    <t>21.4.2013</t>
+  </si>
+  <si>
+    <t>22.4.2013</t>
+  </si>
+  <si>
+    <t>23.4.2013</t>
+  </si>
+  <si>
+    <t>24.4.2013</t>
+  </si>
+  <si>
+    <t>25.4.2013</t>
+  </si>
+  <si>
+    <t>26.4.2013</t>
+  </si>
+  <si>
+    <t>27.4.2013</t>
+  </si>
+  <si>
+    <t>28.4.2013</t>
+  </si>
+  <si>
+    <t>29.4.2013</t>
+  </si>
+  <si>
+    <t>30.4.2013</t>
   </si>
 </sst>
 </file>
@@ -389,13 +479,13 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>23.0</v>
+        <v>29.0</v>
       </c>
       <c r="C3" t="n">
-        <v>24.0</v>
+        <v>28.0</v>
       </c>
       <c r="D3" t="n">
-        <v>68.0</v>
+        <v>72.0</v>
       </c>
       <c r="E3" t="n">
         <v>0.0</v>
@@ -409,13 +499,13 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>34.0</v>
+        <v>30.0</v>
       </c>
       <c r="C4" t="n">
-        <v>30.0</v>
+        <v>28.0</v>
       </c>
       <c r="D4" t="n">
-        <v>76.0</v>
+        <v>73.0</v>
       </c>
       <c r="E4" t="n">
         <v>0.0</v>
@@ -429,13 +519,13 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>39.0</v>
+        <v>37.0</v>
       </c>
       <c r="C5" t="n">
-        <v>27.0</v>
+        <v>31.0</v>
       </c>
       <c r="D5" t="n">
-        <v>71.0</v>
+        <v>74.0</v>
       </c>
       <c r="E5" t="n">
         <v>0.0</v>
@@ -449,13 +539,13 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>33.0</v>
+        <v>35.0</v>
       </c>
       <c r="C6" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="D6" t="n">
-        <v>76.0</v>
+        <v>78.0</v>
       </c>
       <c r="E6" t="n">
         <v>0.0</v>
@@ -469,13 +559,13 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>36.0</v>
+        <v>37.0</v>
       </c>
       <c r="C7" t="n">
-        <v>29.0</v>
+        <v>31.0</v>
       </c>
       <c r="D7" t="n">
-        <v>77.0</v>
+        <v>80.0</v>
       </c>
       <c r="E7" t="n">
         <v>0.0</v>
@@ -489,13 +579,13 @@
         <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>33.0</v>
+        <v>29.0</v>
       </c>
       <c r="C8" t="n">
-        <v>29.0</v>
+        <v>36.0</v>
       </c>
       <c r="D8" t="n">
-        <v>79.0</v>
+        <v>87.0</v>
       </c>
       <c r="E8" t="n">
         <v>0.0</v>
@@ -509,13 +599,13 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>43.0</v>
+        <v>51.0</v>
       </c>
       <c r="C9" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="D9" t="n">
-        <v>81.0</v>
+        <v>89.0</v>
       </c>
       <c r="E9" t="n">
         <v>0.0</v>
@@ -529,10 +619,10 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>51.0</v>
+        <v>43.0</v>
       </c>
       <c r="C10" t="n">
-        <v>27.0</v>
+        <v>24.0</v>
       </c>
       <c r="D10" t="n">
         <v>79.0</v>
@@ -549,13 +639,13 @@
         <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>42.0</v>
+        <v>41.0</v>
       </c>
       <c r="C11" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="D11" t="n">
-        <v>80.0</v>
+        <v>81.0</v>
       </c>
       <c r="E11" t="n">
         <v>0.0</v>
@@ -572,13 +662,13 @@
         <v>17</v>
       </c>
       <c r="B12" t="n">
-        <v>36.0</v>
+        <v>32.0</v>
       </c>
       <c r="C12" t="n">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
       <c r="D12" t="n">
-        <v>76.0</v>
+        <v>73.0</v>
       </c>
       <c r="E12" t="n">
         <v>0.0</v>
@@ -595,13 +685,13 @@
         <v>18</v>
       </c>
       <c r="B13" t="n">
-        <v>39.0</v>
+        <v>34.0</v>
       </c>
       <c r="C13" t="n">
-        <v>27.0</v>
+        <v>25.0</v>
       </c>
       <c r="D13" t="n">
-        <v>77.0</v>
+        <v>78.0</v>
       </c>
       <c r="E13" t="n">
         <v>0.0</v>
@@ -618,13 +708,13 @@
         <v>19</v>
       </c>
       <c r="B14" t="n">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="C14" t="n">
         <v>30.0</v>
       </c>
       <c r="D14" t="n">
-        <v>77.0</v>
+        <v>74.0</v>
       </c>
       <c r="E14" t="n">
         <v>0.0</v>
@@ -641,13 +731,13 @@
         <v>20</v>
       </c>
       <c r="B15" t="n">
-        <v>36.0</v>
+        <v>42.0</v>
       </c>
       <c r="C15" t="n">
-        <v>37.0</v>
+        <v>34.0</v>
       </c>
       <c r="D15" t="n">
-        <v>74.0</v>
+        <v>78.0</v>
       </c>
       <c r="E15" t="n">
         <v>0.0</v>
@@ -664,13 +754,13 @@
         <v>21</v>
       </c>
       <c r="B16" t="n">
-        <v>51.0</v>
+        <v>49.0</v>
       </c>
       <c r="C16" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="D16" t="n">
-        <v>78.0</v>
+        <v>80.0</v>
       </c>
       <c r="E16" t="n">
         <v>0.0</v>
@@ -687,13 +777,13 @@
         <v>22</v>
       </c>
       <c r="B17" t="n">
-        <v>44.0</v>
+        <v>41.0</v>
       </c>
       <c r="C17" t="n">
-        <v>26.0</v>
+        <v>22.0</v>
       </c>
       <c r="D17" t="n">
-        <v>76.0</v>
+        <v>84.0</v>
       </c>
       <c r="E17" t="n">
         <v>0.0</v>
@@ -713,7 +803,7 @@
         <v>39.0</v>
       </c>
       <c r="C18" t="n">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
       <c r="D18" t="n">
         <v>82.0</v>
@@ -733,13 +823,13 @@
         <v>24</v>
       </c>
       <c r="B19" t="n">
-        <v>40.0</v>
+        <v>46.0</v>
       </c>
       <c r="C19" t="n">
         <v>22.0</v>
       </c>
       <c r="D19" t="n">
-        <v>75.0</v>
+        <v>74.0</v>
       </c>
       <c r="E19" t="n">
         <v>0.0</v>
@@ -756,13 +846,13 @@
         <v>25</v>
       </c>
       <c r="B20" t="n">
-        <v>41.0</v>
+        <v>45.0</v>
       </c>
       <c r="C20" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="D20" t="n">
-        <v>82.0</v>
+        <v>76.0</v>
       </c>
       <c r="E20" t="n">
         <v>0.0</v>
@@ -779,13 +869,13 @@
         <v>26</v>
       </c>
       <c r="B21" t="n">
-        <v>32.0</v>
+        <v>34.0</v>
       </c>
       <c r="C21" t="n">
-        <v>29.0</v>
+        <v>24.0</v>
       </c>
       <c r="D21" t="n">
-        <v>73.0</v>
+        <v>69.0</v>
       </c>
       <c r="E21" t="n">
         <v>0.0</v>
@@ -802,13 +892,13 @@
         <v>27</v>
       </c>
       <c r="B22" t="n">
-        <v>32.0</v>
+        <v>31.0</v>
       </c>
       <c r="C22" t="n">
-        <v>29.0</v>
+        <v>27.0</v>
       </c>
       <c r="D22" t="n">
-        <v>80.0</v>
+        <v>83.0</v>
       </c>
       <c r="E22" t="n">
         <v>0.0</v>
@@ -825,13 +915,13 @@
         <v>28</v>
       </c>
       <c r="B23" t="n">
-        <v>44.0</v>
+        <v>41.0</v>
       </c>
       <c r="C23" t="n">
-        <v>21.0</v>
+        <v>25.0</v>
       </c>
       <c r="D23" t="n">
-        <v>80.0</v>
+        <v>79.0</v>
       </c>
       <c r="E23" t="n">
         <v>0.0</v>
@@ -848,13 +938,13 @@
         <v>29</v>
       </c>
       <c r="B24" t="n">
-        <v>39.0</v>
+        <v>41.0</v>
       </c>
       <c r="C24" t="n">
         <v>25.0</v>
       </c>
       <c r="D24" t="n">
-        <v>95.0</v>
+        <v>91.0</v>
       </c>
       <c r="E24" t="n">
         <v>0.0</v>
@@ -871,13 +961,13 @@
         <v>30</v>
       </c>
       <c r="B25" t="n">
-        <v>39.0</v>
+        <v>42.0</v>
       </c>
       <c r="C25" t="n">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
       <c r="D25" t="n">
-        <v>89.0</v>
+        <v>88.0</v>
       </c>
       <c r="E25" t="n">
         <v>0.0</v>
@@ -894,7 +984,7 @@
         <v>31</v>
       </c>
       <c r="B26" t="n">
-        <v>39.0</v>
+        <v>41.0</v>
       </c>
       <c r="C26" t="n">
         <v>25.0</v>
@@ -917,13 +1007,13 @@
         <v>32</v>
       </c>
       <c r="B27" t="n">
-        <v>33.0</v>
+        <v>39.0</v>
       </c>
       <c r="C27" t="n">
-        <v>28.0</v>
+        <v>23.0</v>
       </c>
       <c r="D27" t="n">
-        <v>86.0</v>
+        <v>73.0</v>
       </c>
       <c r="E27" t="n">
         <v>0.0</v>
@@ -940,13 +1030,13 @@
         <v>33</v>
       </c>
       <c r="B28" t="n">
-        <v>30.0</v>
+        <v>34.0</v>
       </c>
       <c r="C28" t="n">
-        <v>28.0</v>
+        <v>33.0</v>
       </c>
       <c r="D28" t="n">
-        <v>89.0</v>
+        <v>87.0</v>
       </c>
       <c r="E28" t="n">
         <v>0.0</v>
@@ -963,13 +1053,13 @@
         <v>34</v>
       </c>
       <c r="B29" t="n">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="C29" t="n">
-        <v>24.0</v>
+        <v>27.0</v>
       </c>
       <c r="D29" t="n">
-        <v>82.0</v>
+        <v>71.0</v>
       </c>
       <c r="E29" t="n">
         <v>0.0</v>
@@ -986,13 +1076,13 @@
         <v>35</v>
       </c>
       <c r="B30" t="n">
-        <v>43.0</v>
+        <v>40.0</v>
       </c>
       <c r="C30" t="n">
         <v>22.0</v>
       </c>
       <c r="D30" t="n">
-        <v>82.0</v>
+        <v>93.0</v>
       </c>
       <c r="E30" t="n">
         <v>0.0</v>
@@ -1009,10 +1099,10 @@
         <v>36</v>
       </c>
       <c r="B31" t="n">
-        <v>34.0</v>
+        <v>42.0</v>
       </c>
       <c r="C31" t="n">
-        <v>28.0</v>
+        <v>33.0</v>
       </c>
       <c r="D31" t="n">
         <v>100.0</v>
@@ -1035,10 +1125,10 @@
         <v>43.0</v>
       </c>
       <c r="C32" t="n">
-        <v>27.0</v>
+        <v>30.0</v>
       </c>
       <c r="D32" t="n">
-        <v>95.0</v>
+        <v>93.0</v>
       </c>
       <c r="E32" t="n">
         <v>0.0</v>
@@ -1055,13 +1145,13 @@
         <v>38</v>
       </c>
       <c r="B33" t="n">
-        <v>46.0</v>
+        <v>34.0</v>
       </c>
       <c r="C33" t="n">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
       <c r="D33" t="n">
-        <v>89.0</v>
+        <v>88.0</v>
       </c>
       <c r="E33" t="n">
         <v>0.0</v>
@@ -1078,13 +1168,13 @@
         <v>39</v>
       </c>
       <c r="B34" t="n">
-        <v>45.0</v>
+        <v>44.0</v>
       </c>
       <c r="C34" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="D34" t="n">
-        <v>91.0</v>
+        <v>96.0</v>
       </c>
       <c r="E34" t="n">
         <v>0.0</v>
@@ -1101,16 +1191,16 @@
         <v>40</v>
       </c>
       <c r="B35" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="C35" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="D35" t="n">
-        <v>77.0</v>
+        <v>89.0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F35" t="n">
         <v>0.0</v>
@@ -1124,13 +1214,13 @@
         <v>41</v>
       </c>
       <c r="B36" t="n">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="C36" t="n">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
       <c r="D36" t="n">
-        <v>83.0</v>
+        <v>81.0</v>
       </c>
       <c r="E36" t="n">
         <v>0.0</v>
@@ -1147,13 +1237,13 @@
         <v>42</v>
       </c>
       <c r="B37" t="n">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="C37" t="n">
-        <v>26.0</v>
+        <v>32.0</v>
       </c>
       <c r="D37" t="n">
-        <v>88.0</v>
+        <v>94.0</v>
       </c>
       <c r="E37" t="n">
         <v>0.0</v>
@@ -1170,16 +1260,16 @@
         <v>43</v>
       </c>
       <c r="B38" t="n">
-        <v>37.0</v>
+        <v>41.0</v>
       </c>
       <c r="C38" t="n">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
       <c r="D38" t="n">
-        <v>91.0</v>
+        <v>92.0</v>
       </c>
       <c r="E38" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F38" t="n">
         <v>0.0</v>
@@ -1193,13 +1283,13 @@
         <v>44</v>
       </c>
       <c r="B39" t="n">
-        <v>39.0</v>
+        <v>42.0</v>
       </c>
       <c r="C39" t="n">
-        <v>25.0</v>
+        <v>23.0</v>
       </c>
       <c r="D39" t="n">
-        <v>90.0</v>
+        <v>99.0</v>
       </c>
       <c r="E39" t="n">
         <v>0.0</v>
@@ -1216,13 +1306,13 @@
         <v>45</v>
       </c>
       <c r="B40" t="n">
-        <v>41.0</v>
+        <v>35.0</v>
       </c>
       <c r="C40" t="n">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
       <c r="D40" t="n">
-        <v>86.0</v>
+        <v>89.0</v>
       </c>
       <c r="E40" t="n">
         <v>0.0</v>
@@ -1239,13 +1329,13 @@
         <v>46</v>
       </c>
       <c r="B41" t="n">
-        <v>34.0</v>
+        <v>37.0</v>
       </c>
       <c r="C41" t="n">
-        <v>27.0</v>
+        <v>23.0</v>
       </c>
       <c r="D41" t="n">
-        <v>90.0</v>
+        <v>84.0</v>
       </c>
       <c r="E41" t="n">
         <v>0.0</v>
@@ -1262,13 +1352,13 @@
         <v>47</v>
       </c>
       <c r="B42" t="n">
-        <v>32.0</v>
+        <v>34.0</v>
       </c>
       <c r="C42" t="n">
-        <v>31.0</v>
+        <v>33.0</v>
       </c>
       <c r="D42" t="n">
-        <v>82.0</v>
+        <v>79.0</v>
       </c>
       <c r="E42" t="n">
         <v>0.0</v>
@@ -1285,13 +1375,13 @@
         <v>48</v>
       </c>
       <c r="B43" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="C43" t="n">
         <v>29.0</v>
       </c>
-      <c r="C43" t="n">
-        <v>27.0</v>
-      </c>
       <c r="D43" t="n">
-        <v>84.0</v>
+        <v>96.0</v>
       </c>
       <c r="E43" t="n">
         <v>0.0</v>
@@ -1311,10 +1401,10 @@
         <v>40.0</v>
       </c>
       <c r="C44" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="D44" t="n">
-        <v>83.0</v>
+        <v>86.0</v>
       </c>
       <c r="E44" t="n">
         <v>0.0</v>
@@ -1334,10 +1424,10 @@
         <v>45.0</v>
       </c>
       <c r="C45" t="n">
-        <v>23.0</v>
+        <v>28.0</v>
       </c>
       <c r="D45" t="n">
-        <v>100.0</v>
+        <v>95.0</v>
       </c>
       <c r="E45" t="n">
         <v>0.0</v>
@@ -1354,10 +1444,10 @@
         <v>51</v>
       </c>
       <c r="B46" t="n">
-        <v>59.0</v>
+        <v>56.0</v>
       </c>
       <c r="C46" t="n">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
       <c r="D46" t="n">
         <v>86.0</v>
@@ -1377,13 +1467,13 @@
         <v>52</v>
       </c>
       <c r="B47" t="n">
-        <v>39.0</v>
+        <v>43.0</v>
       </c>
       <c r="C47" t="n">
         <v>26.0</v>
       </c>
       <c r="D47" t="n">
-        <v>82.0</v>
+        <v>86.0</v>
       </c>
       <c r="E47" t="n">
         <v>0.0</v>
@@ -1400,13 +1490,13 @@
         <v>53</v>
       </c>
       <c r="B48" t="n">
-        <v>32.0</v>
+        <v>34.0</v>
       </c>
       <c r="C48" t="n">
         <v>21.0</v>
       </c>
       <c r="D48" t="n">
-        <v>78.0</v>
+        <v>84.0</v>
       </c>
       <c r="E48" t="n">
         <v>0.0</v>
@@ -1423,13 +1513,13 @@
         <v>54</v>
       </c>
       <c r="B49" t="n">
-        <v>34.0</v>
+        <v>37.0</v>
       </c>
       <c r="C49" t="n">
-        <v>30.0</v>
+        <v>33.0</v>
       </c>
       <c r="D49" t="n">
-        <v>79.0</v>
+        <v>81.0</v>
       </c>
       <c r="E49" t="n">
         <v>0.0</v>
@@ -1446,13 +1536,13 @@
         <v>55</v>
       </c>
       <c r="B50" t="n">
-        <v>36.0</v>
+        <v>40.0</v>
       </c>
       <c r="C50" t="n">
-        <v>22.0</v>
+        <v>28.0</v>
       </c>
       <c r="D50" t="n">
-        <v>72.0</v>
+        <v>75.0</v>
       </c>
       <c r="E50" t="n">
         <v>0.0</v>
@@ -1469,13 +1559,13 @@
         <v>56</v>
       </c>
       <c r="B51" t="n">
-        <v>45.0</v>
+        <v>44.0</v>
       </c>
       <c r="C51" t="n">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
       <c r="D51" t="n">
-        <v>91.0</v>
+        <v>100.0</v>
       </c>
       <c r="E51" t="n">
         <v>0.0</v>
@@ -1492,10 +1582,10 @@
         <v>57</v>
       </c>
       <c r="B52" t="n">
-        <v>42.0</v>
+        <v>51.0</v>
       </c>
       <c r="C52" t="n">
-        <v>24.0</v>
+        <v>28.0</v>
       </c>
       <c r="D52" t="n">
         <v>92.0</v>
@@ -1515,13 +1605,13 @@
         <v>58</v>
       </c>
       <c r="B53" t="n">
-        <v>38.0</v>
+        <v>40.0</v>
       </c>
       <c r="C53" t="n">
-        <v>27.0</v>
+        <v>25.0</v>
       </c>
       <c r="D53" t="n">
-        <v>86.0</v>
+        <v>87.0</v>
       </c>
       <c r="E53" t="n">
         <v>0.0</v>
@@ -1538,13 +1628,13 @@
         <v>59</v>
       </c>
       <c r="B54" t="n">
-        <v>39.0</v>
+        <v>41.0</v>
       </c>
       <c r="C54" t="n">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
       <c r="D54" t="n">
-        <v>94.0</v>
+        <v>89.0</v>
       </c>
       <c r="E54" t="n">
         <v>0.0</v>
@@ -1561,13 +1651,13 @@
         <v>60</v>
       </c>
       <c r="B55" t="n">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="C55" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="D55" t="n">
-        <v>89.0</v>
+        <v>95.0</v>
       </c>
       <c r="E55" t="n">
         <v>0.0</v>
@@ -1584,13 +1674,13 @@
         <v>61</v>
       </c>
       <c r="B56" t="n">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
       <c r="C56" t="n">
-        <v>24.0</v>
+        <v>27.0</v>
       </c>
       <c r="D56" t="n">
-        <v>87.0</v>
+        <v>80.0</v>
       </c>
       <c r="E56" t="n">
         <v>0.0</v>
@@ -1607,13 +1697,13 @@
         <v>62</v>
       </c>
       <c r="B57" t="n">
-        <v>31.0</v>
+        <v>27.0</v>
       </c>
       <c r="C57" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="D57" t="n">
-        <v>79.0</v>
+        <v>83.0</v>
       </c>
       <c r="E57" t="n">
         <v>0.0</v>
@@ -1630,13 +1720,13 @@
         <v>63</v>
       </c>
       <c r="B58" t="n">
-        <v>35.0</v>
+        <v>34.0</v>
       </c>
       <c r="C58" t="n">
         <v>20.0</v>
       </c>
       <c r="D58" t="n">
-        <v>80.0</v>
+        <v>94.0</v>
       </c>
       <c r="E58" t="n">
         <v>0.0</v>
@@ -1653,13 +1743,13 @@
         <v>64</v>
       </c>
       <c r="B59" t="n">
-        <v>36.0</v>
+        <v>47.0</v>
       </c>
       <c r="C59" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="D59" t="n">
-        <v>81.0</v>
+        <v>83.0</v>
       </c>
       <c r="E59" t="n">
         <v>0.0</v>
@@ -1676,13 +1766,13 @@
         <v>65</v>
       </c>
       <c r="B60" t="n">
-        <v>43.0</v>
+        <v>42.0</v>
       </c>
       <c r="C60" t="n">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
       <c r="D60" t="n">
-        <v>82.0</v>
+        <v>83.0</v>
       </c>
       <c r="E60" t="n">
         <v>0.0</v>
@@ -1699,13 +1789,13 @@
         <v>66</v>
       </c>
       <c r="B61" t="n">
-        <v>48.0</v>
+        <v>53.0</v>
       </c>
       <c r="C61" t="n">
         <v>20.0</v>
       </c>
       <c r="D61" t="n">
-        <v>86.0</v>
+        <v>98.0</v>
       </c>
       <c r="E61" t="n">
         <v>0.0</v>
@@ -1725,10 +1815,10 @@
         <v>45.0</v>
       </c>
       <c r="C62" t="n">
-        <v>26.0</v>
+        <v>31.0</v>
       </c>
       <c r="D62" t="n">
-        <v>86.0</v>
+        <v>99.0</v>
       </c>
       <c r="E62" t="n">
         <v>0.0</v>
@@ -1745,13 +1835,13 @@
         <v>68</v>
       </c>
       <c r="B63" t="n">
-        <v>34.0</v>
+        <v>37.0</v>
       </c>
       <c r="C63" t="n">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
       <c r="D63" t="n">
-        <v>75.0</v>
+        <v>84.0</v>
       </c>
       <c r="E63" t="n">
         <v>0.0</v>
@@ -1768,13 +1858,13 @@
         <v>69</v>
       </c>
       <c r="B64" t="n">
-        <v>33.0</v>
+        <v>35.0</v>
       </c>
       <c r="C64" t="n">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
       <c r="D64" t="n">
-        <v>81.0</v>
+        <v>87.0</v>
       </c>
       <c r="E64" t="n">
         <v>0.0</v>
@@ -1791,13 +1881,13 @@
         <v>70</v>
       </c>
       <c r="B65" t="n">
-        <v>43.0</v>
+        <v>44.0</v>
       </c>
       <c r="C65" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="D65" t="n">
-        <v>86.0</v>
+        <v>100.0</v>
       </c>
       <c r="E65" t="n">
         <v>0.0</v>
@@ -1814,13 +1904,13 @@
         <v>71</v>
       </c>
       <c r="B66" t="n">
-        <v>44.0</v>
+        <v>45.0</v>
       </c>
       <c r="C66" t="n">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
       <c r="D66" t="n">
-        <v>96.0</v>
+        <v>100.0</v>
       </c>
       <c r="E66" t="n">
         <v>0.0</v>
@@ -1837,13 +1927,13 @@
         <v>72</v>
       </c>
       <c r="B67" t="n">
-        <v>40.0</v>
+        <v>44.0</v>
       </c>
       <c r="C67" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="D67" t="n">
-        <v>86.0</v>
+        <v>92.0</v>
       </c>
       <c r="E67" t="n">
         <v>0.0</v>
@@ -1860,13 +1950,13 @@
         <v>73</v>
       </c>
       <c r="B68" t="n">
-        <v>42.0</v>
+        <v>48.0</v>
       </c>
       <c r="C68" t="n">
-        <v>22.0</v>
+        <v>20.0</v>
       </c>
       <c r="D68" t="n">
-        <v>100.0</v>
+        <v>98.0</v>
       </c>
       <c r="E68" t="n">
         <v>0.0</v>
@@ -1883,13 +1973,13 @@
         <v>74</v>
       </c>
       <c r="B69" t="n">
-        <v>42.0</v>
+        <v>45.0</v>
       </c>
       <c r="C69" t="n">
-        <v>23.0</v>
+        <v>28.0</v>
       </c>
       <c r="D69" t="n">
-        <v>88.0</v>
+        <v>95.0</v>
       </c>
       <c r="E69" t="n">
         <v>0.0</v>
@@ -1906,13 +1996,13 @@
         <v>75</v>
       </c>
       <c r="B70" t="n">
-        <v>32.0</v>
+        <v>35.0</v>
       </c>
       <c r="C70" t="n">
-        <v>28.0</v>
+        <v>26.0</v>
       </c>
       <c r="D70" t="n">
-        <v>78.0</v>
+        <v>84.0</v>
       </c>
       <c r="E70" t="n">
         <v>0.0</v>
@@ -1932,10 +2022,10 @@
         <v>37.0</v>
       </c>
       <c r="C71" t="n">
-        <v>30.0</v>
+        <v>32.0</v>
       </c>
       <c r="D71" t="n">
-        <v>92.0</v>
+        <v>93.0</v>
       </c>
       <c r="E71" t="n">
         <v>0.0</v>
@@ -1952,13 +2042,13 @@
         <v>77</v>
       </c>
       <c r="B72" t="n">
-        <v>46.0</v>
+        <v>49.0</v>
       </c>
       <c r="C72" t="n">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
       <c r="D72" t="n">
-        <v>93.0</v>
+        <v>92.0</v>
       </c>
       <c r="E72" t="n">
         <v>0.0</v>
@@ -1975,13 +2065,13 @@
         <v>78</v>
       </c>
       <c r="B73" t="n">
-        <v>50.0</v>
+        <v>52.0</v>
       </c>
       <c r="C73" t="n">
-        <v>27.0</v>
+        <v>32.0</v>
       </c>
       <c r="D73" t="n">
-        <v>88.0</v>
+        <v>89.0</v>
       </c>
       <c r="E73" t="n">
         <v>0.0</v>
@@ -1998,13 +2088,13 @@
         <v>79</v>
       </c>
       <c r="B74" t="n">
-        <v>48.0</v>
+        <v>52.0</v>
       </c>
       <c r="C74" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="D74" t="n">
-        <v>92.0</v>
+        <v>94.0</v>
       </c>
       <c r="E74" t="n">
         <v>0.0</v>
@@ -2021,13 +2111,13 @@
         <v>80</v>
       </c>
       <c r="B75" t="n">
-        <v>45.0</v>
+        <v>44.0</v>
       </c>
       <c r="C75" t="n">
-        <v>21.0</v>
+        <v>27.0</v>
       </c>
       <c r="D75" t="n">
-        <v>91.0</v>
+        <v>90.0</v>
       </c>
       <c r="E75" t="n">
         <v>0.0</v>
@@ -2044,13 +2134,13 @@
         <v>81</v>
       </c>
       <c r="B76" t="n">
-        <v>38.0</v>
+        <v>37.0</v>
       </c>
       <c r="C76" t="n">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
       <c r="D76" t="n">
-        <v>84.0</v>
+        <v>91.0</v>
       </c>
       <c r="E76" t="n">
         <v>0.0</v>
@@ -2067,13 +2157,13 @@
         <v>82</v>
       </c>
       <c r="B77" t="n">
-        <v>25.0</v>
+        <v>28.0</v>
       </c>
       <c r="C77" t="n">
-        <v>26.0</v>
+        <v>30.0</v>
       </c>
       <c r="D77" t="n">
-        <v>81.0</v>
+        <v>86.0</v>
       </c>
       <c r="E77" t="n">
         <v>0.0</v>
@@ -2090,13 +2180,13 @@
         <v>83</v>
       </c>
       <c r="B78" t="n">
-        <v>43.0</v>
+        <v>39.0</v>
       </c>
       <c r="C78" t="n">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
       <c r="D78" t="n">
-        <v>88.0</v>
+        <v>85.0</v>
       </c>
       <c r="E78" t="n">
         <v>0.0</v>
@@ -2113,13 +2203,13 @@
         <v>84</v>
       </c>
       <c r="B79" t="n">
-        <v>47.0</v>
+        <v>50.0</v>
       </c>
       <c r="C79" t="n">
         <v>25.0</v>
       </c>
       <c r="D79" t="n">
-        <v>89.0</v>
+        <v>100.0</v>
       </c>
       <c r="E79" t="n">
         <v>0.0</v>
@@ -2136,13 +2226,13 @@
         <v>85</v>
       </c>
       <c r="B80" t="n">
-        <v>50.0</v>
+        <v>44.0</v>
       </c>
       <c r="C80" t="n">
-        <v>29.0</v>
+        <v>24.0</v>
       </c>
       <c r="D80" t="n">
-        <v>82.0</v>
+        <v>91.0</v>
       </c>
       <c r="E80" t="n">
         <v>0.0</v>
@@ -2159,13 +2249,13 @@
         <v>86</v>
       </c>
       <c r="B81" t="n">
-        <v>44.0</v>
+        <v>41.0</v>
       </c>
       <c r="C81" t="n">
-        <v>20.0</v>
+        <v>24.0</v>
       </c>
       <c r="D81" t="n">
-        <v>91.0</v>
+        <v>95.0</v>
       </c>
       <c r="E81" t="n">
         <v>0.0</v>
@@ -2182,13 +2272,13 @@
         <v>87</v>
       </c>
       <c r="B82" t="n">
-        <v>38.0</v>
+        <v>44.0</v>
       </c>
       <c r="C82" t="n">
         <v>26.0</v>
       </c>
       <c r="D82" t="n">
-        <v>87.0</v>
+        <v>95.0</v>
       </c>
       <c r="E82" t="n">
         <v>0.0</v>
@@ -2205,10 +2295,10 @@
         <v>88</v>
       </c>
       <c r="B83" t="n">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="C83" t="n">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
       <c r="D83" t="n">
         <v>84.0</v>
@@ -2228,13 +2318,13 @@
         <v>89</v>
       </c>
       <c r="B84" t="n">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="C84" t="n">
-        <v>25.0</v>
+        <v>31.0</v>
       </c>
       <c r="D84" t="n">
-        <v>86.0</v>
+        <v>90.0</v>
       </c>
       <c r="E84" t="n">
         <v>0.0</v>
@@ -2251,13 +2341,13 @@
         <v>90</v>
       </c>
       <c r="B85" t="n">
-        <v>48.0</v>
+        <v>45.0</v>
       </c>
       <c r="C85" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="D85" t="n">
-        <v>87.0</v>
+        <v>97.0</v>
       </c>
       <c r="E85" t="n">
         <v>0.0</v>
@@ -2274,13 +2364,13 @@
         <v>91</v>
       </c>
       <c r="B86" t="n">
-        <v>45.0</v>
+        <v>50.0</v>
       </c>
       <c r="C86" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="D86" t="n">
-        <v>89.0</v>
+        <v>85.0</v>
       </c>
       <c r="E86" t="n">
         <v>0.0</v>
@@ -2294,13 +2384,13 @@
         <v>92</v>
       </c>
       <c r="B87" t="n">
-        <v>41.0</v>
+        <v>43.0</v>
       </c>
       <c r="C87" t="n">
-        <v>21.0</v>
+        <v>30.0</v>
       </c>
       <c r="D87" t="n">
-        <v>84.0</v>
+        <v>86.0</v>
       </c>
       <c r="E87" t="n">
         <v>0.0</v>
@@ -2314,10 +2404,10 @@
         <v>93</v>
       </c>
       <c r="B88" t="n">
-        <v>42.0</v>
+        <v>49.0</v>
       </c>
       <c r="C88" t="n">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
       <c r="D88" t="n">
         <v>92.0</v>
@@ -2334,13 +2424,13 @@
         <v>94</v>
       </c>
       <c r="B89" t="n">
-        <v>46.0</v>
+        <v>47.0</v>
       </c>
       <c r="C89" t="n">
-        <v>26.0</v>
+        <v>29.0</v>
       </c>
       <c r="D89" t="n">
-        <v>92.0</v>
+        <v>99.0</v>
       </c>
       <c r="E89" t="n">
         <v>0.0</v>
@@ -2354,13 +2444,13 @@
         <v>95</v>
       </c>
       <c r="B90" t="n">
-        <v>52.0</v>
+        <v>58.0</v>
       </c>
       <c r="C90" t="n">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
       <c r="D90" t="n">
-        <v>83.0</v>
+        <v>88.0</v>
       </c>
       <c r="E90" t="n">
         <v>0.0</v>
@@ -2377,10 +2467,10 @@
         <v>41.0</v>
       </c>
       <c r="C91" t="n">
-        <v>26.0</v>
+        <v>30.0</v>
       </c>
       <c r="D91" t="n">
-        <v>77.0</v>
+        <v>73.0</v>
       </c>
       <c r="E91" t="n">
         <v>0.0</v>
@@ -2394,18 +2484,618 @@
         <v>97</v>
       </c>
       <c r="B92" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="C92" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="D92" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>98</v>
+      </c>
+      <c r="B93" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="C93" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="D93" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>99</v>
+      </c>
+      <c r="B94" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="C94" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D94" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="E94" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>100</v>
+      </c>
+      <c r="B95" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="C95" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="D95" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="E95" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>101</v>
+      </c>
+      <c r="B96" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="C96" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="D96" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="E96" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>102</v>
+      </c>
+      <c r="B97" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="C97" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="D97" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>103</v>
+      </c>
+      <c r="B98" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="C98" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="D98" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>104</v>
+      </c>
+      <c r="B99" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="C99" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="D99" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>105</v>
+      </c>
+      <c r="B100" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="C100" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="D100" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>106</v>
+      </c>
+      <c r="B101" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="C101" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D101" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>107</v>
+      </c>
+      <c r="B102" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="C102" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="D102" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>108</v>
+      </c>
+      <c r="B103" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="C103" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="D103" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>109</v>
+      </c>
+      <c r="B104" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="C104" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="D104" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>110</v>
+      </c>
+      <c r="B105" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="C105" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="D105" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>111</v>
+      </c>
+      <c r="B106" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="C106" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="D106" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>112</v>
+      </c>
+      <c r="B107" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="C107" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="D107" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>113</v>
+      </c>
+      <c r="B108" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="C108" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="D108" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>114</v>
+      </c>
+      <c r="B109" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="C109" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D109" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>115</v>
+      </c>
+      <c r="B110" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="C110" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="D110" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>116</v>
+      </c>
+      <c r="B111" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="C111" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="D111" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>117</v>
+      </c>
+      <c r="B112" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="C112" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="D112" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>118</v>
+      </c>
+      <c r="B113" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="C113" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="D113" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>119</v>
+      </c>
+      <c r="B114" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="C114" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="D114" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>120</v>
+      </c>
+      <c r="B115" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="C115" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="D115" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>121</v>
+      </c>
+      <c r="B116" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="C116" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="D116" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>122</v>
+      </c>
+      <c r="B117" t="n">
         <v>41.0</v>
       </c>
-      <c r="C92" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="D92" t="n">
-        <v>76.0</v>
-      </c>
-      <c r="E92" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F92" t="n">
+      <c r="C117" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D117" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>123</v>
+      </c>
+      <c r="B118" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="C118" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="D118" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>124</v>
+      </c>
+      <c r="B119" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="C119" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="D119" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>125</v>
+      </c>
+      <c r="B120" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="C120" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="D120" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>126</v>
+      </c>
+      <c r="B121" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="C121" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="D121" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>127</v>
+      </c>
+      <c r="B122" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="C122" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="D122" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F122" t="n">
         <v>0.0</v>
       </c>
     </row>
